--- a/杂物.xlsx
+++ b/杂物.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NewCodec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91647D49-3E28-4BE3-9029-E19A5E27627F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53929FD-802C-4D10-B92E-FAA29609DCEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2940" windowWidth="20490" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +26,349 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="114">
   <si>
     <t>…</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'PeopleOnStreet_2560x1600_30_crop.yuv'</t>
+  </si>
+  <si>
+    <t>'ClassA'</t>
+  </si>
+  <si>
+    <t>1600x2560 uint8</t>
+  </si>
+  <si>
+    <t>[632,34,0,0,0]</t>
+  </si>
+  <si>
+    <t>[540,33,6,0,0]</t>
+  </si>
+  <si>
+    <t>[472,54,5,0,0]</t>
+  </si>
+  <si>
+    <t>1600x2560 double</t>
+  </si>
+  <si>
+    <t>'Traffic_2560x1600_30_crop.yuv'</t>
+  </si>
+  <si>
+    <t>[620,37,0,0,0]</t>
+  </si>
+  <si>
+    <t>[280,90,8,0,0]</t>
+  </si>
+  <si>
+    <t>[276,103,5,0,0]</t>
+  </si>
+  <si>
+    <t>'BQTerrace_1920x1080_60.yuv'</t>
+  </si>
+  <si>
+    <t>'ClassB'</t>
+  </si>
+  <si>
+    <t>1024x1920 uint8</t>
+  </si>
+  <si>
+    <t>[548,27,7,0,0]</t>
+  </si>
+  <si>
+    <t>[80,72,21,1,0]</t>
+  </si>
+  <si>
+    <t>[68,75,21,1,0]</t>
+  </si>
+  <si>
+    <t>1024x1920 double</t>
+  </si>
+  <si>
+    <t>'BasketballDrive_1920x1080_50.yuv'</t>
+  </si>
+  <si>
+    <t>[440,66,4,0,0]</t>
+  </si>
+  <si>
+    <t>[732,9,0,0,0]</t>
+  </si>
+  <si>
+    <t>[388,83,3,0,0]</t>
+  </si>
+  <si>
+    <t>'Cactus_1920x1080_50.yuv'</t>
+  </si>
+  <si>
+    <t>[316,69,7,1,0]</t>
+  </si>
+  <si>
+    <t>[656,16,3,0,0]</t>
+  </si>
+  <si>
+    <t>[296,66,9,1,0]</t>
+  </si>
+  <si>
+    <t>'Kimono1_1920x1080_24.yuv'</t>
+  </si>
+  <si>
+    <t>[696,18,0,0,0]</t>
+  </si>
+  <si>
+    <t>[556,37,4,0,0]</t>
+  </si>
+  <si>
+    <t>[504,54,3,0,0]</t>
+  </si>
+  <si>
+    <t>'ParkScene_1920x1080_24.yuv'</t>
+  </si>
+  <si>
+    <t>[660,27,0,0,0]</t>
+  </si>
+  <si>
+    <t>[536,46,3,0,0]</t>
+  </si>
+  <si>
+    <t>[456,66,3,0,0]</t>
+  </si>
+  <si>
+    <t>'BQMall_832x480_60.yuv'</t>
+  </si>
+  <si>
+    <t>'ClassC'</t>
+  </si>
+  <si>
+    <t>448x832 uint8</t>
+  </si>
+  <si>
+    <t>[328,82,7,0,0]</t>
+  </si>
+  <si>
+    <t>[724,7,1,0,0]</t>
+  </si>
+  <si>
+    <t>[300,81,9,0,0]</t>
+  </si>
+  <si>
+    <t>448x832 double</t>
+  </si>
+  <si>
+    <t>'BasketballDrill_832x480_50.yuv'</t>
+  </si>
+  <si>
+    <t>[624,36,0,0,0]</t>
+  </si>
+  <si>
+    <t>[348,77,7,0,0]</t>
+  </si>
+  <si>
+    <t>[316,89,6,0,0]</t>
+  </si>
+  <si>
+    <t>'PartyScene_832x480_50.yuv'</t>
+  </si>
+  <si>
+    <t>[448,60,5,0,0]</t>
+  </si>
+  <si>
+    <t>[432,64,5,0,0]</t>
+  </si>
+  <si>
+    <t>'RaceHorses_832x480_30.yuv'</t>
+  </si>
+  <si>
+    <t>[652,29,0,0,0]</t>
+  </si>
+  <si>
+    <t>[532,51,2,0,0]</t>
+  </si>
+  <si>
+    <t>[472,66,2,0,0]</t>
+  </si>
+  <si>
+    <t>'BQSquare_416x240_60.yuv'</t>
+  </si>
+  <si>
+    <t>'ClassD'</t>
+  </si>
+  <si>
+    <t>192x384 uint8</t>
+  </si>
+  <si>
+    <t>[672,24,0,0,0]</t>
+  </si>
+  <si>
+    <t>[468,59,4,0,0]</t>
+  </si>
+  <si>
+    <t>[420,75,3,0,0]</t>
+  </si>
+  <si>
+    <t>192x384 double</t>
+  </si>
+  <si>
+    <t>'BasketballPass_416x240_50.yuv'</t>
+  </si>
+  <si>
+    <t>[656,28,0,0,0]</t>
+  </si>
+  <si>
+    <t>[308,67,12,0,0]</t>
+  </si>
+  <si>
+    <t>[296,78,10,0,0]</t>
+  </si>
+  <si>
+    <t>'BlowingBubbles_416x240_50.yuv'</t>
+  </si>
+  <si>
+    <t>[720,12,0,0,0]</t>
+  </si>
+  <si>
+    <t>[432,68,4,0,0]</t>
+  </si>
+  <si>
+    <t>[400,76,4,0,0]</t>
+  </si>
+  <si>
+    <t>'RaceHorses_416x240_30.yuv'</t>
+  </si>
+  <si>
+    <t>[704,16,0,0,0]</t>
+  </si>
+  <si>
+    <t>[500,55,3,0,0]</t>
+  </si>
+  <si>
+    <t>[480,60,3,0,0]</t>
+  </si>
+  <si>
+    <t>'FourPeople_1280x720_60.yuv'</t>
+  </si>
+  <si>
+    <t>'ClassE'</t>
+  </si>
+  <si>
+    <t>704x1280 uint8</t>
+  </si>
+  <si>
+    <t>[512,60,1,0,0]</t>
+  </si>
+  <si>
+    <t>[560,28,6,0,0]</t>
+  </si>
+  <si>
+    <t>[352,72,8,0,0]</t>
+  </si>
+  <si>
+    <t>704x1280 double</t>
+  </si>
+  <si>
+    <t>'Johnny_1280x720_60.yuv'</t>
+  </si>
+  <si>
+    <t>[424,70,4,0,0]</t>
+  </si>
+  <si>
+    <t>[624,16,5,0,0]</t>
+  </si>
+  <si>
+    <t>[360,82,5,0,0]</t>
+  </si>
+  <si>
+    <t>'KristenAndSara_1280x720_60.yuv'</t>
+  </si>
+  <si>
+    <t>[436,71,3,0,0]</t>
+  </si>
+  <si>
+    <t>[692,15,1,0,0]</t>
+  </si>
+  <si>
+    <t>[396,77,4,0,0]</t>
+  </si>
+  <si>
+    <t>'vidyo1_1280x720_60.yuv'</t>
+  </si>
+  <si>
+    <t>[556,53,0,0,0]</t>
+  </si>
+  <si>
+    <t>[344,18,6,4,0]</t>
+  </si>
+  <si>
+    <t>[376,58,6,1,0]</t>
+  </si>
+  <si>
+    <t>'vidyo3_1280x720_60.yuv'</t>
+  </si>
+  <si>
+    <t>[452,67,3,0,0]</t>
+  </si>
+  <si>
+    <t>[532,27,4,1,0]</t>
+  </si>
+  <si>
+    <t>[324,79,8,0,0]</t>
+  </si>
+  <si>
+    <t>'vidyo4_1280x720_60.yuv'</t>
+  </si>
+  <si>
+    <t>[552,54,0,0,0]</t>
+  </si>
+  <si>
+    <t>[348,57,12,0,0]</t>
+  </si>
+  <si>
+    <t>[268,77,12,0,0]</t>
+  </si>
+  <si>
+    <t>'BasketballDrillText_832x480_50.yuv'</t>
+  </si>
+  <si>
+    <t>'ClassF'</t>
+  </si>
+  <si>
+    <t>'ChinaSpeed_1024x768_30.yuv'</t>
+  </si>
+  <si>
+    <t>768x1024 uint8</t>
+  </si>
+  <si>
+    <t>[668,17,2,0,0]</t>
+  </si>
+  <si>
+    <t>[388,75,5,0,0]</t>
+  </si>
+  <si>
+    <t>[392,78,4,0,0]</t>
+  </si>
+  <si>
+    <t>768x1024 double</t>
+  </si>
+  <si>
+    <t>'SlideEditing_1280x720_30.yuv'</t>
+  </si>
+  <si>
+    <t>[472,58,4,0,0]</t>
+  </si>
+  <si>
+    <t>[328,94,4,0,0]</t>
+  </si>
+  <si>
+    <t>[308,99,4,0,0]</t>
+  </si>
+  <si>
+    <t>'SlideShow_1280x720_20.yuv'</t>
+  </si>
+  <si>
+    <t>[568,38,3,0,0]</t>
+  </si>
+  <si>
+    <t>[332,89,5,0,0]</t>
   </si>
 </sst>
 </file>
@@ -66,7 +406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,11 +494,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,6 +541,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="M14:AJ38"/>
+  <dimension ref="M14:AX39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AT28" sqref="AT28"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="AX39" sqref="AM28:AX39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,7 +999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M17" s="4">
         <v>32</v>
       </c>
@@ -685,7 +1067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M18" s="4">
         <v>32</v>
       </c>
@@ -753,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M19" s="4">
         <v>32</v>
       </c>
@@ -821,7 +1203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="13:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M20" s="4">
         <v>32</v>
       </c>
@@ -889,7 +1271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M21" s="4"/>
       <c r="S21" s="5" t="s">
         <v>0</v>
@@ -943,7 +1325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M22" s="4"/>
       <c r="T22" s="5" t="s">
         <v>0</v>
@@ -997,7 +1379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="13:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M23" s="4">
         <v>32</v>
       </c>
@@ -1071,7 +1453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M24" s="4">
         <v>32</v>
       </c>
@@ -1145,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M25" s="4">
         <v>32</v>
       </c>
@@ -1219,7 +1601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="13:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M26" s="7">
         <v>32</v>
       </c>
@@ -1293,7 +1675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="13:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M27" s="1">
         <v>32</v>
       </c>
@@ -1359,7 +1741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M28" s="4">
         <v>32</v>
       </c>
@@ -1420,8 +1802,14 @@
       <c r="AJ28" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AQ28" s="11">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="13"/>
+    </row>
+    <row r="29" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M29" s="4">
         <v>32</v>
       </c>
@@ -1482,8 +1870,12 @@
       <c r="AJ29" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="16"/>
+    </row>
+    <row r="30" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M30" s="4">
         <v>32</v>
       </c>
@@ -1544,8 +1936,12 @@
       <c r="AJ30" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="16"/>
+    </row>
+    <row r="31" spans="13:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M31" s="4">
         <v>32</v>
       </c>
@@ -1606,8 +2002,12 @@
       <c r="AJ31" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="16"/>
+    </row>
+    <row r="32" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M32" s="4">
         <v>32</v>
       </c>
@@ -1668,8 +2068,38 @@
       <c r="AJ32" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AM32" s="11">
+        <v>3</v>
+      </c>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M33" s="4"/>
       <c r="S33" s="5" t="s">
         <v>0</v>
@@ -1702,8 +2132,36 @@
       <c r="AJ33" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AW33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M34" s="4"/>
       <c r="T34" s="5" t="s">
         <v>0</v>
@@ -1736,8 +2194,36 @@
       <c r="AJ34" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX34" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="13:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M35" s="4">
         <v>32</v>
       </c>
@@ -1810,8 +2296,36 @@
       <c r="AJ35" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AW35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX35" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M36" s="4">
         <v>32</v>
       </c>
@@ -1884,8 +2398,32 @@
       <c r="AJ36" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AQ36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS36" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT36" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU36" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV36" s="10">
+        <v>5</v>
+      </c>
+      <c r="AW36" s="10">
+        <v>5</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="13:50" x14ac:dyDescent="0.2">
       <c r="M37" s="4">
         <v>32</v>
       </c>
@@ -1958,8 +2496,32 @@
       <c r="AJ37" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="13:36" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS37" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT37" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU37" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV37" s="10">
+        <v>5</v>
+      </c>
+      <c r="AW37" s="10">
+        <v>5</v>
+      </c>
+      <c r="AX37" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="13:50" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M38" s="7">
         <v>32</v>
       </c>
@@ -2031,10 +2593,1407 @@
       </c>
       <c r="AJ38" s="9">
         <v>32</v>
+      </c>
+      <c r="AQ38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS38" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT38" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU38" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV38" s="10">
+        <v>5</v>
+      </c>
+      <c r="AW38" s="10">
+        <v>5</v>
+      </c>
+      <c r="AX38" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="13:50" x14ac:dyDescent="0.2">
+      <c r="AQ39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS39" s="10">
+        <v>2</v>
+      </c>
+      <c r="AT39" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU39" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV39" s="10">
+        <v>5</v>
+      </c>
+      <c r="AW39" s="10">
+        <v>5</v>
+      </c>
+      <c r="AX39" s="10">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AQ28:AT31"/>
+    <mergeCell ref="AM32:AP35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC41DB11-EEAC-4B9E-8F4F-B463DA54F29F}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>2560</v>
+      </c>
+      <c r="E1">
+        <v>1600</v>
+      </c>
+      <c r="F1">
+        <v>39819</v>
+      </c>
+      <c r="G1">
+        <v>38950</v>
+      </c>
+      <c r="H1">
+        <v>38854</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2560</v>
+      </c>
+      <c r="E2">
+        <v>1600</v>
+      </c>
+      <c r="F2">
+        <v>56346</v>
+      </c>
+      <c r="G2">
+        <v>53767</v>
+      </c>
+      <c r="H2">
+        <v>53647</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1920</v>
+      </c>
+      <c r="E3">
+        <v>1080</v>
+      </c>
+      <c r="F3">
+        <v>46738</v>
+      </c>
+      <c r="G3">
+        <v>39042</v>
+      </c>
+      <c r="H3">
+        <v>39018</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1920</v>
+      </c>
+      <c r="E4">
+        <v>1080</v>
+      </c>
+      <c r="F4">
+        <v>45984</v>
+      </c>
+      <c r="G4">
+        <v>46527</v>
+      </c>
+      <c r="H4">
+        <v>45887</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5">
+        <v>1080</v>
+      </c>
+      <c r="F5">
+        <v>49757</v>
+      </c>
+      <c r="G5">
+        <v>50343</v>
+      </c>
+      <c r="H5">
+        <v>49666</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1920</v>
+      </c>
+      <c r="E6">
+        <v>1080</v>
+      </c>
+      <c r="F6">
+        <v>48830</v>
+      </c>
+      <c r="G6">
+        <v>48357</v>
+      </c>
+      <c r="H6">
+        <v>48261</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1920</v>
+      </c>
+      <c r="E7">
+        <v>1080</v>
+      </c>
+      <c r="F7">
+        <v>65321</v>
+      </c>
+      <c r="G7">
+        <v>64460</v>
+      </c>
+      <c r="H7">
+        <v>64336</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>832</v>
+      </c>
+      <c r="E8">
+        <v>480</v>
+      </c>
+      <c r="F8">
+        <v>41263</v>
+      </c>
+      <c r="G8">
+        <v>42080</v>
+      </c>
+      <c r="H8">
+        <v>41244</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>832</v>
+      </c>
+      <c r="E9">
+        <v>480</v>
+      </c>
+      <c r="F9">
+        <v>65947</v>
+      </c>
+      <c r="G9">
+        <v>64218</v>
+      </c>
+      <c r="H9">
+        <v>63981</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>832</v>
+      </c>
+      <c r="E10">
+        <v>480</v>
+      </c>
+      <c r="F10">
+        <v>91883</v>
+      </c>
+      <c r="G10">
+        <v>90199</v>
+      </c>
+      <c r="H10">
+        <v>90144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>832</v>
+      </c>
+      <c r="E11">
+        <v>480</v>
+      </c>
+      <c r="F11">
+        <v>82375</v>
+      </c>
+      <c r="G11">
+        <v>81923</v>
+      </c>
+      <c r="H11">
+        <v>81758</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>416</v>
+      </c>
+      <c r="E12">
+        <v>240</v>
+      </c>
+      <c r="F12">
+        <v>81045</v>
+      </c>
+      <c r="G12">
+        <v>79731</v>
+      </c>
+      <c r="H12">
+        <v>79600</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>416</v>
+      </c>
+      <c r="E13">
+        <v>240</v>
+      </c>
+      <c r="F13">
+        <v>55439</v>
+      </c>
+      <c r="G13">
+        <v>54061</v>
+      </c>
+      <c r="H13">
+        <v>54018</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>416</v>
+      </c>
+      <c r="E14">
+        <v>240</v>
+      </c>
+      <c r="F14">
+        <v>72294</v>
+      </c>
+      <c r="G14">
+        <v>71173</v>
+      </c>
+      <c r="H14">
+        <v>71109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>416</v>
+      </c>
+      <c r="E15">
+        <v>240</v>
+      </c>
+      <c r="F15">
+        <v>70504</v>
+      </c>
+      <c r="G15">
+        <v>69510</v>
+      </c>
+      <c r="H15">
+        <v>69460</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>1280</v>
+      </c>
+      <c r="E16">
+        <v>720</v>
+      </c>
+      <c r="F16">
+        <v>44243</v>
+      </c>
+      <c r="G16">
+        <v>43455</v>
+      </c>
+      <c r="H16">
+        <v>43062</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>1280</v>
+      </c>
+      <c r="E17">
+        <v>720</v>
+      </c>
+      <c r="F17">
+        <v>36643</v>
+      </c>
+      <c r="G17">
+        <v>36724</v>
+      </c>
+      <c r="H17">
+        <v>36091</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>1280</v>
+      </c>
+      <c r="E18">
+        <v>720</v>
+      </c>
+      <c r="F18">
+        <v>34647</v>
+      </c>
+      <c r="G18">
+        <v>34881</v>
+      </c>
+      <c r="H18">
+        <v>34241</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>1280</v>
+      </c>
+      <c r="E19">
+        <v>720</v>
+      </c>
+      <c r="F19">
+        <v>42358</v>
+      </c>
+      <c r="G19">
+        <v>41702</v>
+      </c>
+      <c r="H19">
+        <v>41460</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>1280</v>
+      </c>
+      <c r="E20">
+        <v>720</v>
+      </c>
+      <c r="F20">
+        <v>42743</v>
+      </c>
+      <c r="G20">
+        <v>42205</v>
+      </c>
+      <c r="H20">
+        <v>41789</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>1280</v>
+      </c>
+      <c r="E21">
+        <v>720</v>
+      </c>
+      <c r="F21">
+        <v>45670</v>
+      </c>
+      <c r="G21">
+        <v>43760</v>
+      </c>
+      <c r="H21">
+        <v>43557</v>
+      </c>
+      <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>832</v>
+      </c>
+      <c r="E22">
+        <v>480</v>
+      </c>
+      <c r="F22">
+        <v>65947</v>
+      </c>
+      <c r="G22">
+        <v>64218</v>
+      </c>
+      <c r="H22">
+        <v>63981</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23">
+        <v>1024</v>
+      </c>
+      <c r="E23">
+        <v>768</v>
+      </c>
+      <c r="F23">
+        <v>64193</v>
+      </c>
+      <c r="G23">
+        <v>61079</v>
+      </c>
+      <c r="H23">
+        <v>60910</v>
+      </c>
+      <c r="I23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>1280</v>
+      </c>
+      <c r="E24">
+        <v>720</v>
+      </c>
+      <c r="F24">
+        <v>43565</v>
+      </c>
+      <c r="G24">
+        <v>42789</v>
+      </c>
+      <c r="H24">
+        <v>41923</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>1280</v>
+      </c>
+      <c r="E25">
+        <v>720</v>
+      </c>
+      <c r="F25">
+        <v>40313</v>
+      </c>
+      <c r="G25">
+        <v>38875</v>
+      </c>
+      <c r="H25">
+        <v>38604</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/杂物.xlsx
+++ b/杂物.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NewCodec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8A2809-0C71-4371-8928-7E65F0A7A87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE650AF-EB42-4253-A524-4D72837D99EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="分块341次扫描顺序" sheetId="3" r:id="rId3"/>
+    <sheet name="分块341次扫描顺序" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">分块341次扫描顺序!$A$1:$I$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分块341次扫描顺序!$A$1:$I$342</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,346 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="123">
-  <si>
-    <t>'PeopleOnStreet_2560x1600_30_crop.yuv'</t>
-  </si>
-  <si>
-    <t>'ClassA'</t>
-  </si>
-  <si>
-    <t>1600x2560 uint8</t>
-  </si>
-  <si>
-    <t>[632,34,0,0,0]</t>
-  </si>
-  <si>
-    <t>[540,33,6,0,0]</t>
-  </si>
-  <si>
-    <t>[472,54,5,0,0]</t>
-  </si>
-  <si>
-    <t>1600x2560 double</t>
-  </si>
-  <si>
-    <t>'Traffic_2560x1600_30_crop.yuv'</t>
-  </si>
-  <si>
-    <t>[620,37,0,0,0]</t>
-  </si>
-  <si>
-    <t>[280,90,8,0,0]</t>
-  </si>
-  <si>
-    <t>[276,103,5,0,0]</t>
-  </si>
-  <si>
-    <t>'BQTerrace_1920x1080_60.yuv'</t>
-  </si>
-  <si>
-    <t>'ClassB'</t>
-  </si>
-  <si>
-    <t>1024x1920 uint8</t>
-  </si>
-  <si>
-    <t>[548,27,7,0,0]</t>
-  </si>
-  <si>
-    <t>[80,72,21,1,0]</t>
-  </si>
-  <si>
-    <t>[68,75,21,1,0]</t>
-  </si>
-  <si>
-    <t>1024x1920 double</t>
-  </si>
-  <si>
-    <t>'BasketballDrive_1920x1080_50.yuv'</t>
-  </si>
-  <si>
-    <t>[440,66,4,0,0]</t>
-  </si>
-  <si>
-    <t>[732,9,0,0,0]</t>
-  </si>
-  <si>
-    <t>[388,83,3,0,0]</t>
-  </si>
-  <si>
-    <t>'Cactus_1920x1080_50.yuv'</t>
-  </si>
-  <si>
-    <t>[316,69,7,1,0]</t>
-  </si>
-  <si>
-    <t>[656,16,3,0,0]</t>
-  </si>
-  <si>
-    <t>[296,66,9,1,0]</t>
-  </si>
-  <si>
-    <t>'Kimono1_1920x1080_24.yuv'</t>
-  </si>
-  <si>
-    <t>[696,18,0,0,0]</t>
-  </si>
-  <si>
-    <t>[556,37,4,0,0]</t>
-  </si>
-  <si>
-    <t>[504,54,3,0,0]</t>
-  </si>
-  <si>
-    <t>'ParkScene_1920x1080_24.yuv'</t>
-  </si>
-  <si>
-    <t>[660,27,0,0,0]</t>
-  </si>
-  <si>
-    <t>[536,46,3,0,0]</t>
-  </si>
-  <si>
-    <t>[456,66,3,0,0]</t>
-  </si>
-  <si>
-    <t>'BQMall_832x480_60.yuv'</t>
-  </si>
-  <si>
-    <t>'ClassC'</t>
-  </si>
-  <si>
-    <t>448x832 uint8</t>
-  </si>
-  <si>
-    <t>[328,82,7,0,0]</t>
-  </si>
-  <si>
-    <t>[724,7,1,0,0]</t>
-  </si>
-  <si>
-    <t>[300,81,9,0,0]</t>
-  </si>
-  <si>
-    <t>448x832 double</t>
-  </si>
-  <si>
-    <t>'BasketballDrill_832x480_50.yuv'</t>
-  </si>
-  <si>
-    <t>[624,36,0,0,0]</t>
-  </si>
-  <si>
-    <t>[348,77,7,0,0]</t>
-  </si>
-  <si>
-    <t>[316,89,6,0,0]</t>
-  </si>
-  <si>
-    <t>'PartyScene_832x480_50.yuv'</t>
-  </si>
-  <si>
-    <t>[448,60,5,0,0]</t>
-  </si>
-  <si>
-    <t>[432,64,5,0,0]</t>
-  </si>
-  <si>
-    <t>'RaceHorses_832x480_30.yuv'</t>
-  </si>
-  <si>
-    <t>[652,29,0,0,0]</t>
-  </si>
-  <si>
-    <t>[532,51,2,0,0]</t>
-  </si>
-  <si>
-    <t>[472,66,2,0,0]</t>
-  </si>
-  <si>
-    <t>'BQSquare_416x240_60.yuv'</t>
-  </si>
-  <si>
-    <t>'ClassD'</t>
-  </si>
-  <si>
-    <t>192x384 uint8</t>
-  </si>
-  <si>
-    <t>[672,24,0,0,0]</t>
-  </si>
-  <si>
-    <t>[468,59,4,0,0]</t>
-  </si>
-  <si>
-    <t>[420,75,3,0,0]</t>
-  </si>
-  <si>
-    <t>192x384 double</t>
-  </si>
-  <si>
-    <t>'BasketballPass_416x240_50.yuv'</t>
-  </si>
-  <si>
-    <t>[656,28,0,0,0]</t>
-  </si>
-  <si>
-    <t>[308,67,12,0,0]</t>
-  </si>
-  <si>
-    <t>[296,78,10,0,0]</t>
-  </si>
-  <si>
-    <t>'BlowingBubbles_416x240_50.yuv'</t>
-  </si>
-  <si>
-    <t>[720,12,0,0,0]</t>
-  </si>
-  <si>
-    <t>[432,68,4,0,0]</t>
-  </si>
-  <si>
-    <t>[400,76,4,0,0]</t>
-  </si>
-  <si>
-    <t>'RaceHorses_416x240_30.yuv'</t>
-  </si>
-  <si>
-    <t>[704,16,0,0,0]</t>
-  </si>
-  <si>
-    <t>[500,55,3,0,0]</t>
-  </si>
-  <si>
-    <t>[480,60,3,0,0]</t>
-  </si>
-  <si>
-    <t>'FourPeople_1280x720_60.yuv'</t>
-  </si>
-  <si>
-    <t>'ClassE'</t>
-  </si>
-  <si>
-    <t>704x1280 uint8</t>
-  </si>
-  <si>
-    <t>[512,60,1,0,0]</t>
-  </si>
-  <si>
-    <t>[560,28,6,0,0]</t>
-  </si>
-  <si>
-    <t>[352,72,8,0,0]</t>
-  </si>
-  <si>
-    <t>704x1280 double</t>
-  </si>
-  <si>
-    <t>'Johnny_1280x720_60.yuv'</t>
-  </si>
-  <si>
-    <t>[424,70,4,0,0]</t>
-  </si>
-  <si>
-    <t>[624,16,5,0,0]</t>
-  </si>
-  <si>
-    <t>[360,82,5,0,0]</t>
-  </si>
-  <si>
-    <t>'KristenAndSara_1280x720_60.yuv'</t>
-  </si>
-  <si>
-    <t>[436,71,3,0,0]</t>
-  </si>
-  <si>
-    <t>[692,15,1,0,0]</t>
-  </si>
-  <si>
-    <t>[396,77,4,0,0]</t>
-  </si>
-  <si>
-    <t>'vidyo1_1280x720_60.yuv'</t>
-  </si>
-  <si>
-    <t>[556,53,0,0,0]</t>
-  </si>
-  <si>
-    <t>[344,18,6,4,0]</t>
-  </si>
-  <si>
-    <t>[376,58,6,1,0]</t>
-  </si>
-  <si>
-    <t>'vidyo3_1280x720_60.yuv'</t>
-  </si>
-  <si>
-    <t>[452,67,3,0,0]</t>
-  </si>
-  <si>
-    <t>[532,27,4,1,0]</t>
-  </si>
-  <si>
-    <t>[324,79,8,0,0]</t>
-  </si>
-  <si>
-    <t>'vidyo4_1280x720_60.yuv'</t>
-  </si>
-  <si>
-    <t>[552,54,0,0,0]</t>
-  </si>
-  <si>
-    <t>[348,57,12,0,0]</t>
-  </si>
-  <si>
-    <t>[268,77,12,0,0]</t>
-  </si>
-  <si>
-    <t>'BasketballDrillText_832x480_50.yuv'</t>
-  </si>
-  <si>
-    <t>'ClassF'</t>
-  </si>
-  <si>
-    <t>'ChinaSpeed_1024x768_30.yuv'</t>
-  </si>
-  <si>
-    <t>768x1024 uint8</t>
-  </si>
-  <si>
-    <t>[668,17,2,0,0]</t>
-  </si>
-  <si>
-    <t>[388,75,5,0,0]</t>
-  </si>
-  <si>
-    <t>[392,78,4,0,0]</t>
-  </si>
-  <si>
-    <t>768x1024 double</t>
-  </si>
-  <si>
-    <t>'SlideEditing_1280x720_30.yuv'</t>
-  </si>
-  <si>
-    <t>[472,58,4,0,0]</t>
-  </si>
-  <si>
-    <t>[328,94,4,0,0]</t>
-  </si>
-  <si>
-    <t>[308,99,4,0,0]</t>
-  </si>
-  <si>
-    <t>'SlideShow_1280x720_20.yuv'</t>
-  </si>
-  <si>
-    <t>[568,38,3,0,0]</t>
-  </si>
-  <si>
-    <t>[332,89,5,0,0]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -958,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:FC76"/>
+  <dimension ref="C1:FU76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DD30" sqref="DD30"/>
+    <sheetView tabSelected="1" topLeftCell="CB34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FL67" sqref="FL67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4438,7 +4097,7 @@
       <c r="CZ32" s="23"/>
       <c r="DA32" s="12"/>
     </row>
-    <row r="33" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="9">
         <v>14</v>
       </c>
@@ -4632,7 +4291,7 @@
       <c r="CZ33" s="23"/>
       <c r="DA33" s="12"/>
     </row>
-    <row r="34" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>14</v>
       </c>
@@ -4826,7 +4485,7 @@
       <c r="CZ34" s="23"/>
       <c r="DA34" s="12"/>
     </row>
-    <row r="35" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="9">
         <v>14</v>
       </c>
@@ -5020,7 +4679,7 @@
       <c r="CZ35" s="14"/>
       <c r="DA35" s="15"/>
     </row>
-    <row r="36" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="9">
         <v>14</v>
       </c>
@@ -5166,7 +4825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="9">
         <v>1</v>
       </c>
@@ -5312,7 +4971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="9">
         <v>1</v>
       </c>
@@ -5649,8 +5308,56 @@
       <c r="FA38" s="5"/>
       <c r="FB38" s="5"/>
       <c r="FC38" s="8"/>
-    </row>
-    <row r="39" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF38" s="4">
+        <v>1</v>
+      </c>
+      <c r="FG38" s="5">
+        <v>1</v>
+      </c>
+      <c r="FH38" s="5">
+        <v>1</v>
+      </c>
+      <c r="FI38" s="5">
+        <v>1</v>
+      </c>
+      <c r="FJ38" s="4">
+        <v>5</v>
+      </c>
+      <c r="FK38" s="5">
+        <v>5</v>
+      </c>
+      <c r="FL38" s="5">
+        <v>5</v>
+      </c>
+      <c r="FM38" s="8">
+        <v>5</v>
+      </c>
+      <c r="FN38" s="4">
+        <v>1</v>
+      </c>
+      <c r="FO38" s="5">
+        <v>1</v>
+      </c>
+      <c r="FP38" s="5">
+        <v>1</v>
+      </c>
+      <c r="FQ38" s="8">
+        <v>1</v>
+      </c>
+      <c r="FR38" s="4">
+        <v>5</v>
+      </c>
+      <c r="FS38" s="5">
+        <v>5</v>
+      </c>
+      <c r="FT38" s="5">
+        <v>5</v>
+      </c>
+      <c r="FU38" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="9">
         <v>1</v>
       </c>
@@ -5872,16 +5579,16 @@
         <v>5</v>
       </c>
       <c r="CP39" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CQ39" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CR39" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CS39" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CT39" s="23"/>
       <c r="CU39" s="23"/>
@@ -5987,8 +5694,56 @@
       <c r="FA39" s="23"/>
       <c r="FB39" s="23"/>
       <c r="FC39" s="12"/>
-    </row>
-    <row r="40" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF39" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG39" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH39" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI39" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ39" s="9">
+        <v>5</v>
+      </c>
+      <c r="FK39" s="23">
+        <v>5</v>
+      </c>
+      <c r="FL39" s="23">
+        <v>5</v>
+      </c>
+      <c r="FM39" s="12">
+        <v>5</v>
+      </c>
+      <c r="FN39" s="9">
+        <v>1</v>
+      </c>
+      <c r="FO39" s="23">
+        <v>5</v>
+      </c>
+      <c r="FP39" s="23">
+        <v>5</v>
+      </c>
+      <c r="FQ39" s="12">
+        <v>5</v>
+      </c>
+      <c r="FR39" s="9">
+        <v>5</v>
+      </c>
+      <c r="FS39" s="23">
+        <v>5</v>
+      </c>
+      <c r="FT39" s="23">
+        <v>5</v>
+      </c>
+      <c r="FU39" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="9">
         <v>1</v>
       </c>
@@ -6236,10 +5991,10 @@
         <v>2</v>
       </c>
       <c r="DF40" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DG40" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DH40" s="9">
         <v>5</v>
@@ -6268,22 +6023,22 @@
         <v>2</v>
       </c>
       <c r="DX40" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DY40" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DZ40" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="EA40" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="EB40" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="EC40" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="ED40" s="23"/>
       <c r="EE40" s="23"/>
@@ -6325,8 +6080,56 @@
       <c r="FA40" s="23"/>
       <c r="FB40" s="23"/>
       <c r="FC40" s="12"/>
-    </row>
-    <row r="41" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="FF40" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG40" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH40" s="23">
+        <v>8</v>
+      </c>
+      <c r="FI40" s="23">
+        <v>8</v>
+      </c>
+      <c r="FJ40" s="9">
+        <v>5</v>
+      </c>
+      <c r="FK40" s="23">
+        <v>5</v>
+      </c>
+      <c r="FL40" s="23">
+        <v>5</v>
+      </c>
+      <c r="FM40" s="12">
+        <v>5</v>
+      </c>
+      <c r="FN40" s="9">
+        <v>1</v>
+      </c>
+      <c r="FO40" s="23">
+        <v>5</v>
+      </c>
+      <c r="FP40" s="23">
+        <v>5</v>
+      </c>
+      <c r="FQ40" s="12">
+        <v>5</v>
+      </c>
+      <c r="FR40" s="9">
+        <v>5</v>
+      </c>
+      <c r="FS40" s="23">
+        <v>5</v>
+      </c>
+      <c r="FT40" s="23">
+        <v>5</v>
+      </c>
+      <c r="FU40" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="9">
         <v>32</v>
       </c>
@@ -6574,7 +6377,7 @@
         <v>2</v>
       </c>
       <c r="DF41" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DG41" s="23">
         <v>2</v>
@@ -6606,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="DX41" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DY41" s="23">
         <v>2</v>
@@ -6663,8 +6466,56 @@
       <c r="FA41" s="23"/>
       <c r="FB41" s="23"/>
       <c r="FC41" s="12"/>
-    </row>
-    <row r="42" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF41" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG41" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH41" s="23">
+        <v>8</v>
+      </c>
+      <c r="FI41" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ41" s="16">
+        <v>5</v>
+      </c>
+      <c r="FK41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FL41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FM41" s="15">
+        <v>5</v>
+      </c>
+      <c r="FN41" s="16">
+        <v>1</v>
+      </c>
+      <c r="FO41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FP41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FQ41" s="15">
+        <v>4</v>
+      </c>
+      <c r="FR41" s="16">
+        <v>5</v>
+      </c>
+      <c r="FS41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FT41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FU41" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="9">
         <v>32</v>
       </c>
@@ -6877,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="CM42" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CN42" s="23">
         <v>2</v>
@@ -6912,7 +6763,7 @@
         <v>2</v>
       </c>
       <c r="DF42" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DG42" s="23">
         <v>2</v>
@@ -7001,8 +6852,56 @@
       <c r="FA42" s="23"/>
       <c r="FB42" s="23"/>
       <c r="FC42" s="12"/>
-    </row>
-    <row r="43" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF42" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG42" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH42" s="23">
+        <v>8</v>
+      </c>
+      <c r="FI42" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ42" s="23">
+        <v>3</v>
+      </c>
+      <c r="FK42" s="23">
+        <v>3</v>
+      </c>
+      <c r="FL42" s="23">
+        <v>3</v>
+      </c>
+      <c r="FM42" s="12">
+        <v>3</v>
+      </c>
+      <c r="FN42" s="4">
+        <v>3</v>
+      </c>
+      <c r="FO42" s="5">
+        <v>3</v>
+      </c>
+      <c r="FP42" s="5">
+        <v>3</v>
+      </c>
+      <c r="FQ42" s="8">
+        <v>3</v>
+      </c>
+      <c r="FR42" s="4">
+        <v>5</v>
+      </c>
+      <c r="FS42" s="5">
+        <v>5</v>
+      </c>
+      <c r="FT42" s="5">
+        <v>5</v>
+      </c>
+      <c r="FU42" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="9">
         <v>32</v>
       </c>
@@ -7215,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="CM43" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CN43" s="23">
         <v>2</v>
@@ -7250,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="DF43" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DG43" s="23">
         <v>2</v>
@@ -7339,8 +7238,56 @@
       <c r="FA43" s="23"/>
       <c r="FB43" s="23"/>
       <c r="FC43" s="12"/>
-    </row>
-    <row r="44" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="FF43" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG43" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH43" s="23">
+        <v>8</v>
+      </c>
+      <c r="FI43" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ43" s="23">
+        <v>3</v>
+      </c>
+      <c r="FK43" s="23">
+        <v>9</v>
+      </c>
+      <c r="FL43" s="23">
+        <v>9</v>
+      </c>
+      <c r="FM43" s="12">
+        <v>9</v>
+      </c>
+      <c r="FN43" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO43" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP43" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ43" s="12">
+        <v>3</v>
+      </c>
+      <c r="FR43" s="9">
+        <v>5</v>
+      </c>
+      <c r="FS43" s="23">
+        <v>9</v>
+      </c>
+      <c r="FT43" s="23">
+        <v>9</v>
+      </c>
+      <c r="FU43" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="9">
         <v>32</v>
       </c>
@@ -7553,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="CM44" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CN44" s="23">
         <v>2</v>
@@ -7588,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="DF44" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DG44" s="23">
         <v>2</v>
@@ -7677,8 +7624,56 @@
       <c r="FA44" s="23"/>
       <c r="FB44" s="23"/>
       <c r="FC44" s="12"/>
-    </row>
-    <row r="45" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="FF44" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG44" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH44" s="23">
+        <v>8</v>
+      </c>
+      <c r="FI44" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ44" s="23">
+        <v>3</v>
+      </c>
+      <c r="FK44" s="23">
+        <v>9</v>
+      </c>
+      <c r="FL44" s="23">
+        <v>12</v>
+      </c>
+      <c r="FM44" s="12">
+        <v>12</v>
+      </c>
+      <c r="FN44" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO44" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP44" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ44" s="12">
+        <v>3</v>
+      </c>
+      <c r="FR44" s="9">
+        <v>5</v>
+      </c>
+      <c r="FS44" s="23">
+        <v>9</v>
+      </c>
+      <c r="FT44" s="23">
+        <v>12</v>
+      </c>
+      <c r="FU44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="24">
         <v>29</v>
       </c>
@@ -7891,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="CM45" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CN45" s="14">
         <v>2</v>
@@ -7926,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="DF45" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="DG45" s="14">
         <v>2</v>
@@ -8015,8 +8010,56 @@
       <c r="FA45" s="23"/>
       <c r="FB45" s="23"/>
       <c r="FC45" s="12"/>
-    </row>
-    <row r="46" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF45" s="16">
+        <v>1</v>
+      </c>
+      <c r="FG45" s="14">
+        <v>2</v>
+      </c>
+      <c r="FH45" s="14">
+        <v>8</v>
+      </c>
+      <c r="FI45" s="14">
+        <v>2</v>
+      </c>
+      <c r="FJ45" s="14">
+        <v>3</v>
+      </c>
+      <c r="FK45" s="14">
+        <v>9</v>
+      </c>
+      <c r="FL45" s="14">
+        <v>12</v>
+      </c>
+      <c r="FM45" s="15">
+        <v>1</v>
+      </c>
+      <c r="FN45" s="16">
+        <v>3</v>
+      </c>
+      <c r="FO45" s="14">
+        <v>3</v>
+      </c>
+      <c r="FP45" s="14">
+        <v>3</v>
+      </c>
+      <c r="FQ45" s="15">
+        <v>3</v>
+      </c>
+      <c r="FR45" s="16">
+        <v>5</v>
+      </c>
+      <c r="FS45" s="14">
+        <v>9</v>
+      </c>
+      <c r="FT45" s="14">
+        <v>12</v>
+      </c>
+      <c r="FU45" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="26">
         <v>29</v>
       </c>
@@ -8257,8 +8300,56 @@
       <c r="FA46" s="23"/>
       <c r="FB46" s="23"/>
       <c r="FC46" s="12"/>
-    </row>
-    <row r="47" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF46" s="4">
+        <v>1</v>
+      </c>
+      <c r="FG46" s="5">
+        <v>1</v>
+      </c>
+      <c r="FH46" s="5">
+        <v>1</v>
+      </c>
+      <c r="FI46" s="5">
+        <v>1</v>
+      </c>
+      <c r="FJ46" s="5">
+        <v>1</v>
+      </c>
+      <c r="FK46" s="5">
+        <v>1</v>
+      </c>
+      <c r="FL46" s="5">
+        <v>1</v>
+      </c>
+      <c r="FM46" s="8">
+        <v>1</v>
+      </c>
+      <c r="FN46" s="4">
+        <v>3</v>
+      </c>
+      <c r="FO46" s="5">
+        <v>3</v>
+      </c>
+      <c r="FP46" s="5">
+        <v>3</v>
+      </c>
+      <c r="FQ46" s="5">
+        <v>3</v>
+      </c>
+      <c r="FR46" s="5">
+        <v>3</v>
+      </c>
+      <c r="FS46" s="5">
+        <v>3</v>
+      </c>
+      <c r="FT46" s="5">
+        <v>3</v>
+      </c>
+      <c r="FU46" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="26">
         <v>29</v>
       </c>
@@ -8499,8 +8590,56 @@
       <c r="FA47" s="23"/>
       <c r="FB47" s="23"/>
       <c r="FC47" s="12"/>
-    </row>
-    <row r="48" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="FF47" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG47" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH47" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI47" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ47" s="23">
+        <v>2</v>
+      </c>
+      <c r="FK47" s="23">
+        <v>2</v>
+      </c>
+      <c r="FL47" s="23">
+        <v>2</v>
+      </c>
+      <c r="FM47" s="12">
+        <v>2</v>
+      </c>
+      <c r="FN47" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO47" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP47" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ47" s="23">
+        <v>3</v>
+      </c>
+      <c r="FR47" s="23">
+        <v>3</v>
+      </c>
+      <c r="FS47" s="23">
+        <v>3</v>
+      </c>
+      <c r="FT47" s="23">
+        <v>3</v>
+      </c>
+      <c r="FU47" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="26">
         <v>29</v>
       </c>
@@ -8741,8 +8880,56 @@
       <c r="FA48" s="23"/>
       <c r="FB48" s="23"/>
       <c r="FC48" s="12"/>
-    </row>
-    <row r="49" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF48" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG48" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH48" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI48" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ48" s="23">
+        <v>2</v>
+      </c>
+      <c r="FK48" s="23">
+        <v>2</v>
+      </c>
+      <c r="FL48" s="23">
+        <v>2</v>
+      </c>
+      <c r="FM48" s="12">
+        <v>2</v>
+      </c>
+      <c r="FN48" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO48" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP48" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ48" s="23">
+        <v>3</v>
+      </c>
+      <c r="FR48" s="23">
+        <v>3</v>
+      </c>
+      <c r="FS48" s="23">
+        <v>3</v>
+      </c>
+      <c r="FT48" s="23">
+        <v>3</v>
+      </c>
+      <c r="FU48" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="26">
         <v>29</v>
       </c>
@@ -8983,8 +9170,56 @@
       <c r="FA49" s="23"/>
       <c r="FB49" s="23"/>
       <c r="FC49" s="12"/>
-    </row>
-    <row r="50" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF49" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG49" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH49" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI49" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ49" s="23">
+        <v>2</v>
+      </c>
+      <c r="FK49" s="23">
+        <v>2</v>
+      </c>
+      <c r="FL49" s="23">
+        <v>2</v>
+      </c>
+      <c r="FM49" s="12">
+        <v>2</v>
+      </c>
+      <c r="FN49" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO49" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP49" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ49" s="23">
+        <v>3</v>
+      </c>
+      <c r="FR49" s="23">
+        <v>3</v>
+      </c>
+      <c r="FS49" s="23">
+        <v>3</v>
+      </c>
+      <c r="FT49" s="23">
+        <v>3</v>
+      </c>
+      <c r="FU49" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="26">
         <v>29</v>
       </c>
@@ -9225,8 +9460,56 @@
       <c r="FA50" s="23"/>
       <c r="FB50" s="23"/>
       <c r="FC50" s="12"/>
-    </row>
-    <row r="51" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF50" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG50" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH50" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI50" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FK50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FL50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FM50" s="12">
+        <v>3</v>
+      </c>
+      <c r="FN50" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FR50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FS50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FT50" s="23">
+        <v>3</v>
+      </c>
+      <c r="FU50" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="26">
         <v>29</v>
       </c>
@@ -9467,8 +9750,56 @@
       <c r="FA51" s="23"/>
       <c r="FB51" s="23"/>
       <c r="FC51" s="12"/>
-    </row>
-    <row r="52" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="FF51" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG51" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH51" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI51" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ51" s="23">
+        <v>3</v>
+      </c>
+      <c r="FK51" s="23">
+        <v>9</v>
+      </c>
+      <c r="FL51" s="23">
+        <v>9</v>
+      </c>
+      <c r="FM51" s="12">
+        <v>9</v>
+      </c>
+      <c r="FN51" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO51" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP51" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ51" s="23">
+        <v>3</v>
+      </c>
+      <c r="FR51" s="23">
+        <v>3</v>
+      </c>
+      <c r="FS51" s="23">
+        <v>3</v>
+      </c>
+      <c r="FT51" s="23">
+        <v>3</v>
+      </c>
+      <c r="FU51" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="26">
         <v>29</v>
       </c>
@@ -9709,8 +10040,56 @@
       <c r="FA52" s="23"/>
       <c r="FB52" s="23"/>
       <c r="FC52" s="12"/>
-    </row>
-    <row r="53" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="FF52" s="9">
+        <v>1</v>
+      </c>
+      <c r="FG52" s="23">
+        <v>2</v>
+      </c>
+      <c r="FH52" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI52" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ52" s="23">
+        <v>3</v>
+      </c>
+      <c r="FK52" s="23">
+        <v>9</v>
+      </c>
+      <c r="FL52" s="23">
+        <v>12</v>
+      </c>
+      <c r="FM52" s="12">
+        <v>12</v>
+      </c>
+      <c r="FN52" s="9">
+        <v>3</v>
+      </c>
+      <c r="FO52" s="23">
+        <v>3</v>
+      </c>
+      <c r="FP52" s="23">
+        <v>3</v>
+      </c>
+      <c r="FQ52" s="23">
+        <v>3</v>
+      </c>
+      <c r="FR52" s="23">
+        <v>3</v>
+      </c>
+      <c r="FS52" s="23">
+        <v>3</v>
+      </c>
+      <c r="FT52" s="23">
+        <v>3</v>
+      </c>
+      <c r="FU52" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="24">
         <v>35</v>
       </c>
@@ -9951,8 +10330,56 @@
       <c r="FA53" s="14"/>
       <c r="FB53" s="14"/>
       <c r="FC53" s="15"/>
-    </row>
-    <row r="54" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF53" s="16">
+        <v>1</v>
+      </c>
+      <c r="FG53" s="14">
+        <v>2</v>
+      </c>
+      <c r="FH53" s="14">
+        <v>2</v>
+      </c>
+      <c r="FI53" s="14">
+        <v>2</v>
+      </c>
+      <c r="FJ53" s="14">
+        <v>3</v>
+      </c>
+      <c r="FK53" s="14">
+        <v>9</v>
+      </c>
+      <c r="FL53" s="14">
+        <v>12</v>
+      </c>
+      <c r="FM53" s="15">
+        <v>1</v>
+      </c>
+      <c r="FN53" s="16">
+        <v>3</v>
+      </c>
+      <c r="FO53" s="14">
+        <v>3</v>
+      </c>
+      <c r="FP53" s="14">
+        <v>3</v>
+      </c>
+      <c r="FQ53" s="14">
+        <v>3</v>
+      </c>
+      <c r="FR53" s="14">
+        <v>3</v>
+      </c>
+      <c r="FS53" s="14">
+        <v>3</v>
+      </c>
+      <c r="FT53" s="14">
+        <v>3</v>
+      </c>
+      <c r="FU53" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="26">
         <v>35</v>
       </c>
@@ -10098,7 +10525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="26">
         <v>35</v>
       </c>
@@ -10244,7 +10671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="17">
         <v>35</v>
       </c>
@@ -10389,8 +10816,296 @@
       <c r="AX56" s="12">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB56" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BD56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BE56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BF56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BG56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BH56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BI56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BJ56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BK56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BL56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BM56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BN56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BO56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BP56" s="5">
+        <v>3</v>
+      </c>
+      <c r="BQ56" s="8">
+        <v>3</v>
+      </c>
+      <c r="BT56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BV56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BZ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CA56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CC56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CE56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CH56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CI56" s="8">
+        <v>1</v>
+      </c>
+      <c r="CL56" s="4">
+        <v>1</v>
+      </c>
+      <c r="CM56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CP56" s="4">
+        <v>5</v>
+      </c>
+      <c r="CQ56" s="5">
+        <v>5</v>
+      </c>
+      <c r="CR56" s="5">
+        <v>5</v>
+      </c>
+      <c r="CS56" s="8">
+        <v>5</v>
+      </c>
+      <c r="CT56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CU56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CW56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CX56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CY56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CZ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA56" s="8">
+        <v>1</v>
+      </c>
+      <c r="DD56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DE56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DF56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DG56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DH56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DI56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DJ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DK56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DL56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DM56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DN56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO56" s="8">
+        <v>1</v>
+      </c>
+      <c r="DP56" s="4">
+        <v>5</v>
+      </c>
+      <c r="DQ56" s="5">
+        <v>5</v>
+      </c>
+      <c r="DR56" s="5">
+        <v>5</v>
+      </c>
+      <c r="DS56" s="8">
+        <v>5</v>
+      </c>
+      <c r="DV56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DW56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DX56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DY56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DZ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EA56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EB56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EC56" s="5">
+        <v>1</v>
+      </c>
+      <c r="ED56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EE56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EF56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EG56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EH56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EI56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EJ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EK56" s="8">
+        <v>1</v>
+      </c>
+      <c r="EN56" s="4">
+        <v>1</v>
+      </c>
+      <c r="EO56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EP56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EQ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="ER56" s="5">
+        <v>1</v>
+      </c>
+      <c r="ES56" s="5">
+        <v>1</v>
+      </c>
+      <c r="ET56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EU56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EV56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EW56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EX56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EY56" s="5">
+        <v>1</v>
+      </c>
+      <c r="EZ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="FA56" s="5">
+        <v>1</v>
+      </c>
+      <c r="FB56" s="5">
+        <v>1</v>
+      </c>
+      <c r="FC56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="9">
         <v>18</v>
       </c>
@@ -10535,8 +11250,296 @@
       <c r="AX57" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB57" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP57" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ57" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT57" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU57" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV57" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW57" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX57" s="23">
+        <v>2</v>
+      </c>
+      <c r="BY57" s="23">
+        <v>2</v>
+      </c>
+      <c r="BZ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CA57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CB57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CC57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CG57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CH57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CI57" s="12">
+        <v>2</v>
+      </c>
+      <c r="CL57" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CO57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CP57" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ57" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR57" s="23">
+        <v>5</v>
+      </c>
+      <c r="CS57" s="12">
+        <v>5</v>
+      </c>
+      <c r="CT57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CU57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CW57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CY57" s="23">
+        <v>2</v>
+      </c>
+      <c r="CZ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DA57" s="12">
+        <v>2</v>
+      </c>
+      <c r="DD57" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DI57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DJ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DK57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DL57" s="9">
+        <v>1</v>
+      </c>
+      <c r="DM57" s="23">
+        <v>5</v>
+      </c>
+      <c r="DN57" s="23">
+        <v>5</v>
+      </c>
+      <c r="DO57" s="12">
+        <v>5</v>
+      </c>
+      <c r="DP57" s="9">
+        <v>5</v>
+      </c>
+      <c r="DQ57" s="23">
+        <v>5</v>
+      </c>
+      <c r="DR57" s="23">
+        <v>5</v>
+      </c>
+      <c r="DS57" s="12">
+        <v>5</v>
+      </c>
+      <c r="DV57" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY57" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EA57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EB57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EC57" s="23">
+        <v>2</v>
+      </c>
+      <c r="ED57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EE57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EI57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EJ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EK57" s="12">
+        <v>2</v>
+      </c>
+      <c r="EN57" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER57" s="23">
+        <v>2</v>
+      </c>
+      <c r="ES57" s="23">
+        <v>2</v>
+      </c>
+      <c r="ET57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EU57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EV57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EW57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EX57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EY57" s="23">
+        <v>2</v>
+      </c>
+      <c r="EZ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="FA57" s="23">
+        <v>2</v>
+      </c>
+      <c r="FB57" s="23">
+        <v>2</v>
+      </c>
+      <c r="FC57" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="9">
         <v>18</v>
       </c>
@@ -10681,8 +11684,296 @@
       <c r="AX58" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB58" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP58" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ58" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT58" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU58" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV58" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW58" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX58" s="23">
+        <v>2</v>
+      </c>
+      <c r="BY58" s="23">
+        <v>2</v>
+      </c>
+      <c r="BZ58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CA58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CB58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CC58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CG58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CH58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CI58" s="12">
+        <v>2</v>
+      </c>
+      <c r="CL58" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM58" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN58" s="23">
+        <v>8</v>
+      </c>
+      <c r="CO58" s="23">
+        <v>8</v>
+      </c>
+      <c r="CP58" s="9">
+        <v>5</v>
+      </c>
+      <c r="CQ58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CS58" s="12">
+        <v>5</v>
+      </c>
+      <c r="CT58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CU58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CV58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CW58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CX58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CY58" s="23">
+        <v>5</v>
+      </c>
+      <c r="CZ58" s="23">
+        <v>5</v>
+      </c>
+      <c r="DA58" s="12">
+        <v>5</v>
+      </c>
+      <c r="DD58" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DI58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DJ58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DK58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DL58" s="9">
+        <v>1</v>
+      </c>
+      <c r="DM58" s="23">
+        <v>5</v>
+      </c>
+      <c r="DN58" s="23">
+        <v>5</v>
+      </c>
+      <c r="DO58" s="12">
+        <v>5</v>
+      </c>
+      <c r="DP58" s="9">
+        <v>5</v>
+      </c>
+      <c r="DQ58" s="23">
+        <v>5</v>
+      </c>
+      <c r="DR58" s="23">
+        <v>5</v>
+      </c>
+      <c r="DS58" s="12">
+        <v>5</v>
+      </c>
+      <c r="DV58" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY58" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EA58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EB58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EC58" s="23">
+        <v>2</v>
+      </c>
+      <c r="ED58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EE58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EI58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EJ58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EK58" s="12">
+        <v>2</v>
+      </c>
+      <c r="EN58" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ58" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER58" s="23">
+        <v>2</v>
+      </c>
+      <c r="ES58" s="23">
+        <v>2</v>
+      </c>
+      <c r="ET58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EU58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EV58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EW58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EX58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EY58" s="23">
+        <v>2</v>
+      </c>
+      <c r="EZ58" s="23">
+        <v>2</v>
+      </c>
+      <c r="FA58" s="23">
+        <v>2</v>
+      </c>
+      <c r="FB58" s="23">
+        <v>2</v>
+      </c>
+      <c r="FC58" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="9">
         <v>18</v>
       </c>
@@ -10827,8 +12118,296 @@
       <c r="AX59" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB59" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP59" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ59" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT59" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU59" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV59" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW59" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX59" s="23">
+        <v>2</v>
+      </c>
+      <c r="BY59" s="23">
+        <v>2</v>
+      </c>
+      <c r="BZ59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CA59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CB59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CC59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CG59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CH59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CI59" s="12">
+        <v>2</v>
+      </c>
+      <c r="CL59" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN59" s="23">
+        <v>8</v>
+      </c>
+      <c r="CO59" s="23">
+        <v>2</v>
+      </c>
+      <c r="CP59" s="16">
+        <v>5</v>
+      </c>
+      <c r="CQ59" s="14">
+        <v>5</v>
+      </c>
+      <c r="CR59" s="14">
+        <v>5</v>
+      </c>
+      <c r="CS59" s="15">
+        <v>5</v>
+      </c>
+      <c r="CT59" s="23">
+        <v>5</v>
+      </c>
+      <c r="CU59" s="23">
+        <v>5</v>
+      </c>
+      <c r="CV59" s="23">
+        <v>5</v>
+      </c>
+      <c r="CW59" s="23">
+        <v>5</v>
+      </c>
+      <c r="CX59" s="23">
+        <v>5</v>
+      </c>
+      <c r="CY59" s="23">
+        <v>5</v>
+      </c>
+      <c r="CZ59" s="23">
+        <v>5</v>
+      </c>
+      <c r="DA59" s="12">
+        <v>5</v>
+      </c>
+      <c r="DD59" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DI59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DJ59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DK59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DL59" s="16">
+        <v>1</v>
+      </c>
+      <c r="DM59" s="14">
+        <v>5</v>
+      </c>
+      <c r="DN59" s="14">
+        <v>5</v>
+      </c>
+      <c r="DO59" s="15">
+        <v>4</v>
+      </c>
+      <c r="DP59" s="16">
+        <v>5</v>
+      </c>
+      <c r="DQ59" s="14">
+        <v>5</v>
+      </c>
+      <c r="DR59" s="14">
+        <v>5</v>
+      </c>
+      <c r="DS59" s="15">
+        <v>5</v>
+      </c>
+      <c r="DV59" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY59" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EA59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EB59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EC59" s="23">
+        <v>2</v>
+      </c>
+      <c r="ED59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EE59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EI59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EJ59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EK59" s="12">
+        <v>2</v>
+      </c>
+      <c r="EN59" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ59" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER59" s="23">
+        <v>2</v>
+      </c>
+      <c r="ES59" s="23">
+        <v>2</v>
+      </c>
+      <c r="ET59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EU59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EV59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EW59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EX59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EY59" s="23">
+        <v>2</v>
+      </c>
+      <c r="EZ59" s="23">
+        <v>2</v>
+      </c>
+      <c r="FA59" s="23">
+        <v>2</v>
+      </c>
+      <c r="FB59" s="23">
+        <v>2</v>
+      </c>
+      <c r="FC59" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="9">
         <v>18</v>
       </c>
@@ -10973,8 +12552,296 @@
       <c r="AX60" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB60" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ60" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT60" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU60" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV60" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW60" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY60" s="23">
+        <v>3</v>
+      </c>
+      <c r="BZ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CA60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CB60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CC60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CD60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CE60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CF60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CG60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CH60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CI60" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL60" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM60" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN60" s="23">
+        <v>8</v>
+      </c>
+      <c r="CO60" s="23">
+        <v>2</v>
+      </c>
+      <c r="CP60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CR60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CS60" s="12">
+        <v>3</v>
+      </c>
+      <c r="CT60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CU60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CV60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CW60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CX60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CY60" s="23">
+        <v>3</v>
+      </c>
+      <c r="CZ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="DA60" s="12">
+        <v>3</v>
+      </c>
+      <c r="DD60" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE60" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF60" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG60" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH60" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI60" s="23">
+        <v>3</v>
+      </c>
+      <c r="DJ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="DK60" s="23">
+        <v>3</v>
+      </c>
+      <c r="DL60" s="4">
+        <v>3</v>
+      </c>
+      <c r="DM60" s="5">
+        <v>3</v>
+      </c>
+      <c r="DN60" s="5">
+        <v>3</v>
+      </c>
+      <c r="DO60" s="8">
+        <v>3</v>
+      </c>
+      <c r="DP60" s="4">
+        <v>5</v>
+      </c>
+      <c r="DQ60" s="5">
+        <v>5</v>
+      </c>
+      <c r="DR60" s="5">
+        <v>5</v>
+      </c>
+      <c r="DS60" s="8">
+        <v>5</v>
+      </c>
+      <c r="DV60" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW60" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX60" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY60" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EA60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EB60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EC60" s="23">
+        <v>3</v>
+      </c>
+      <c r="ED60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EE60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EF60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EG60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EH60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EI60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EJ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EK60" s="12">
+        <v>3</v>
+      </c>
+      <c r="EN60" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO60" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP60" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ60" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER60" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES60" s="23">
+        <v>3</v>
+      </c>
+      <c r="ET60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EU60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EV60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EW60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EX60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EY60" s="23">
+        <v>3</v>
+      </c>
+      <c r="EZ60" s="23">
+        <v>3</v>
+      </c>
+      <c r="FA60" s="23">
+        <v>3</v>
+      </c>
+      <c r="FB60" s="23">
+        <v>3</v>
+      </c>
+      <c r="FC60" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="9">
         <v>35</v>
       </c>
@@ -11119,8 +12986,296 @@
       <c r="AX61" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB61" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ61" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT61" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU61" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV61" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW61" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX61" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY61" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CA61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CC61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CD61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CE61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CF61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CG61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CH61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CI61" s="12">
+        <v>5</v>
+      </c>
+      <c r="CL61" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM61" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN61" s="23">
+        <v>8</v>
+      </c>
+      <c r="CO61" s="23">
+        <v>2</v>
+      </c>
+      <c r="CP61" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ61" s="23">
+        <v>9</v>
+      </c>
+      <c r="CR61" s="23">
+        <v>9</v>
+      </c>
+      <c r="CS61" s="12">
+        <v>9</v>
+      </c>
+      <c r="CT61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CU61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CV61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CW61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CX61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CY61" s="23">
+        <v>5</v>
+      </c>
+      <c r="CZ61" s="23">
+        <v>5</v>
+      </c>
+      <c r="DA61" s="12">
+        <v>5</v>
+      </c>
+      <c r="DD61" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE61" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF61" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG61" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH61" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI61" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ61" s="23">
+        <v>5</v>
+      </c>
+      <c r="DK61" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL61" s="9">
+        <v>3</v>
+      </c>
+      <c r="DM61" s="23">
+        <v>3</v>
+      </c>
+      <c r="DN61" s="23">
+        <v>3</v>
+      </c>
+      <c r="DO61" s="12">
+        <v>3</v>
+      </c>
+      <c r="DP61" s="9">
+        <v>5</v>
+      </c>
+      <c r="DQ61" s="23">
+        <v>9</v>
+      </c>
+      <c r="DR61" s="23">
+        <v>9</v>
+      </c>
+      <c r="DS61" s="12">
+        <v>9</v>
+      </c>
+      <c r="DV61" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW61" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX61" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY61" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ61" s="23">
+        <v>3</v>
+      </c>
+      <c r="EA61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EB61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EC61" s="23">
+        <v>5</v>
+      </c>
+      <c r="ED61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EE61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EF61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EG61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EH61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EI61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EJ61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EK61" s="12">
+        <v>5</v>
+      </c>
+      <c r="EN61" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO61" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP61" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ61" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER61" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES61" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EU61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EW61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EX61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EY61" s="23">
+        <v>5</v>
+      </c>
+      <c r="EZ61" s="23">
+        <v>5</v>
+      </c>
+      <c r="FA61" s="23">
+        <v>5</v>
+      </c>
+      <c r="FB61" s="23">
+        <v>5</v>
+      </c>
+      <c r="FC61" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
         <v>35</v>
       </c>
@@ -11265,8 +13420,296 @@
       <c r="AX62" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB62" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ62" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT62" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU62" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV62" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW62" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX62" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY62" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CB62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CC62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CD62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CE62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CF62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CG62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CH62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CI62" s="12">
+        <v>4</v>
+      </c>
+      <c r="CL62" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM62" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN62" s="23">
+        <v>8</v>
+      </c>
+      <c r="CO62" s="23">
+        <v>2</v>
+      </c>
+      <c r="CP62" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ62" s="23">
+        <v>9</v>
+      </c>
+      <c r="CR62" s="23">
+        <v>12</v>
+      </c>
+      <c r="CS62" s="12">
+        <v>12</v>
+      </c>
+      <c r="CT62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CU62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CV62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CW62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CX62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CY62" s="23">
+        <v>4</v>
+      </c>
+      <c r="CZ62" s="23">
+        <v>4</v>
+      </c>
+      <c r="DA62" s="12">
+        <v>4</v>
+      </c>
+      <c r="DD62" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE62" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF62" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG62" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH62" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI62" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ62" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK62" s="23">
+        <v>4</v>
+      </c>
+      <c r="DL62" s="9">
+        <v>3</v>
+      </c>
+      <c r="DM62" s="23">
+        <v>3</v>
+      </c>
+      <c r="DN62" s="23">
+        <v>3</v>
+      </c>
+      <c r="DO62" s="12">
+        <v>3</v>
+      </c>
+      <c r="DP62" s="9">
+        <v>5</v>
+      </c>
+      <c r="DQ62" s="23">
+        <v>9</v>
+      </c>
+      <c r="DR62" s="23">
+        <v>12</v>
+      </c>
+      <c r="DS62" s="12">
+        <v>12</v>
+      </c>
+      <c r="DV62" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW62" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX62" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY62" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ62" s="23">
+        <v>3</v>
+      </c>
+      <c r="EA62" s="23">
+        <v>5</v>
+      </c>
+      <c r="EB62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EC62" s="23">
+        <v>4</v>
+      </c>
+      <c r="ED62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EE62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EF62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EG62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EH62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EI62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EJ62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EK62" s="12">
+        <v>4</v>
+      </c>
+      <c r="EN62" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO62" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP62" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ62" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER62" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES62" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EV62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EW62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EX62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EY62" s="23">
+        <v>4</v>
+      </c>
+      <c r="EZ62" s="23">
+        <v>4</v>
+      </c>
+      <c r="FA62" s="23">
+        <v>4</v>
+      </c>
+      <c r="FB62" s="23">
+        <v>4</v>
+      </c>
+      <c r="FC62" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="9">
         <v>35</v>
       </c>
@@ -11411,8 +13854,296 @@
       <c r="AX63" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB63" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ63" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT63" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU63" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV63" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW63" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX63" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY63" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ63" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CC63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CD63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CE63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CF63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CG63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CH63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CI63" s="12">
+        <v>5</v>
+      </c>
+      <c r="CL63" s="16">
+        <v>1</v>
+      </c>
+      <c r="CM63" s="14">
+        <v>2</v>
+      </c>
+      <c r="CN63" s="14">
+        <v>8</v>
+      </c>
+      <c r="CO63" s="14">
+        <v>2</v>
+      </c>
+      <c r="CP63" s="14">
+        <v>3</v>
+      </c>
+      <c r="CQ63" s="14">
+        <v>9</v>
+      </c>
+      <c r="CR63" s="14">
+        <v>12</v>
+      </c>
+      <c r="CS63" s="15">
+        <v>1</v>
+      </c>
+      <c r="CT63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CU63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CV63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CW63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CX63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CY63" s="23">
+        <v>5</v>
+      </c>
+      <c r="CZ63" s="23">
+        <v>5</v>
+      </c>
+      <c r="DA63" s="12">
+        <v>5</v>
+      </c>
+      <c r="DD63" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE63" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF63" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG63" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH63" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI63" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ63" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK63" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL63" s="16">
+        <v>3</v>
+      </c>
+      <c r="DM63" s="14">
+        <v>3</v>
+      </c>
+      <c r="DN63" s="14">
+        <v>3</v>
+      </c>
+      <c r="DO63" s="15">
+        <v>3</v>
+      </c>
+      <c r="DP63" s="16">
+        <v>5</v>
+      </c>
+      <c r="DQ63" s="14">
+        <v>9</v>
+      </c>
+      <c r="DR63" s="14">
+        <v>12</v>
+      </c>
+      <c r="DS63" s="15">
+        <v>1</v>
+      </c>
+      <c r="DV63" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW63" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX63" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY63" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ63" s="23">
+        <v>3</v>
+      </c>
+      <c r="EA63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EB63" s="23">
+        <v>4</v>
+      </c>
+      <c r="EC63" s="23">
+        <v>5</v>
+      </c>
+      <c r="ED63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EE63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EF63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EG63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EH63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EI63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EJ63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EK63" s="12">
+        <v>5</v>
+      </c>
+      <c r="EN63" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO63" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP63" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ63" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER63" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES63" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET63" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EW63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EX63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EY63" s="23">
+        <v>5</v>
+      </c>
+      <c r="EZ63" s="23">
+        <v>5</v>
+      </c>
+      <c r="FA63" s="23">
+        <v>5</v>
+      </c>
+      <c r="FB63" s="23">
+        <v>5</v>
+      </c>
+      <c r="FC63" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="9">
         <v>35</v>
       </c>
@@ -11557,8 +14288,296 @@
       <c r="AX64" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB64" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ64" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT64" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU64" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV64" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW64" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX64" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY64" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ64" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA64" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CD64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CE64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CF64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CG64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CH64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CI64" s="12">
+        <v>1</v>
+      </c>
+      <c r="CL64" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM64" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN64" s="23">
+        <v>5</v>
+      </c>
+      <c r="CO64" s="23">
+        <v>5</v>
+      </c>
+      <c r="CP64" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ64" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR64" s="23">
+        <v>4</v>
+      </c>
+      <c r="CS64" s="23">
+        <v>5</v>
+      </c>
+      <c r="CT64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CU64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CV64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CW64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CX64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CY64" s="23">
+        <v>1</v>
+      </c>
+      <c r="CZ64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DA64" s="12">
+        <v>1</v>
+      </c>
+      <c r="DD64" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE64" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF64" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG64" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH64" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI64" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ64" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK64" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DM64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DN64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DO64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DP64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DQ64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DR64" s="23">
+        <v>1</v>
+      </c>
+      <c r="DS64" s="12">
+        <v>1</v>
+      </c>
+      <c r="DV64" s="4">
+        <v>1</v>
+      </c>
+      <c r="DW64" s="5">
+        <v>1</v>
+      </c>
+      <c r="DX64" s="5">
+        <v>1</v>
+      </c>
+      <c r="DY64" s="5">
+        <v>1</v>
+      </c>
+      <c r="DZ64" s="5">
+        <v>1</v>
+      </c>
+      <c r="EA64" s="5">
+        <v>1</v>
+      </c>
+      <c r="EB64" s="5">
+        <v>1</v>
+      </c>
+      <c r="EC64" s="8">
+        <v>1</v>
+      </c>
+      <c r="ED64" s="23">
+        <v>1</v>
+      </c>
+      <c r="EE64" s="23">
+        <v>1</v>
+      </c>
+      <c r="EF64" s="23">
+        <v>1</v>
+      </c>
+      <c r="EG64" s="23">
+        <v>1</v>
+      </c>
+      <c r="EH64" s="23">
+        <v>1</v>
+      </c>
+      <c r="EI64" s="23">
+        <v>1</v>
+      </c>
+      <c r="EJ64" s="23">
+        <v>1</v>
+      </c>
+      <c r="EK64" s="12">
+        <v>1</v>
+      </c>
+      <c r="EN64" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO64" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP64" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ64" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER64" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES64" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET64" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU64" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV64" s="4">
+        <v>3</v>
+      </c>
+      <c r="EW64" s="5">
+        <v>3</v>
+      </c>
+      <c r="EX64" s="5">
+        <v>3</v>
+      </c>
+      <c r="EY64" s="5">
+        <v>3</v>
+      </c>
+      <c r="EZ64" s="5">
+        <v>3</v>
+      </c>
+      <c r="FA64" s="5">
+        <v>3</v>
+      </c>
+      <c r="FB64" s="5">
+        <v>3</v>
+      </c>
+      <c r="FC64" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="9">
         <v>2</v>
       </c>
@@ -11703,8 +14722,296 @@
       <c r="AX65" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB65" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ65" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT65" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU65" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV65" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW65" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX65" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY65" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ65" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA65" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB65" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CG65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CH65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CI65" s="12">
+        <v>2</v>
+      </c>
+      <c r="CL65" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN65" s="23">
+        <v>5</v>
+      </c>
+      <c r="CO65" s="23">
+        <v>5</v>
+      </c>
+      <c r="CP65" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ65" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR65" s="23">
+        <v>4</v>
+      </c>
+      <c r="CS65" s="23">
+        <v>5</v>
+      </c>
+      <c r="CT65" s="23">
+        <v>1</v>
+      </c>
+      <c r="CU65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CW65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CY65" s="23">
+        <v>2</v>
+      </c>
+      <c r="CZ65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DA65" s="12">
+        <v>2</v>
+      </c>
+      <c r="DD65" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH65" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI65" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ65" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK65" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL65" s="23">
+        <v>1</v>
+      </c>
+      <c r="DM65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DQ65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DR65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DS65" s="12">
+        <v>2</v>
+      </c>
+      <c r="DV65" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY65" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EA65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EB65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EC65" s="12">
+        <v>2</v>
+      </c>
+      <c r="ED65" s="23">
+        <v>1</v>
+      </c>
+      <c r="EE65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EI65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EJ65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EK65" s="12">
+        <v>2</v>
+      </c>
+      <c r="EN65" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP65" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ65" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER65" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES65" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET65" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU65" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV65" s="9">
+        <v>3</v>
+      </c>
+      <c r="EW65" s="23">
+        <v>3</v>
+      </c>
+      <c r="EX65" s="23">
+        <v>3</v>
+      </c>
+      <c r="EY65" s="23">
+        <v>3</v>
+      </c>
+      <c r="EZ65" s="23">
+        <v>3</v>
+      </c>
+      <c r="FA65" s="23">
+        <v>3</v>
+      </c>
+      <c r="FB65" s="23">
+        <v>3</v>
+      </c>
+      <c r="FC65" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="9">
         <v>2</v>
       </c>
@@ -11849,8 +15156,296 @@
       <c r="AX66" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB66" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ66" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT66" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU66" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV66" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW66" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX66" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY66" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ66" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA66" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB66" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CG66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CH66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CI66" s="12">
+        <v>2</v>
+      </c>
+      <c r="CL66" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN66" s="23">
+        <v>5</v>
+      </c>
+      <c r="CO66" s="23">
+        <v>5</v>
+      </c>
+      <c r="CP66" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ66" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR66" s="23">
+        <v>4</v>
+      </c>
+      <c r="CS66" s="23">
+        <v>5</v>
+      </c>
+      <c r="CT66" s="23">
+        <v>1</v>
+      </c>
+      <c r="CU66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CW66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CY66" s="23">
+        <v>2</v>
+      </c>
+      <c r="CZ66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DA66" s="12">
+        <v>2</v>
+      </c>
+      <c r="DD66" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH66" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI66" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ66" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK66" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL66" s="23">
+        <v>1</v>
+      </c>
+      <c r="DM66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DQ66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DR66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DS66" s="12">
+        <v>2</v>
+      </c>
+      <c r="DV66" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY66" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EA66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EB66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EC66" s="12">
+        <v>2</v>
+      </c>
+      <c r="ED66" s="23">
+        <v>1</v>
+      </c>
+      <c r="EE66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EI66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EJ66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EK66" s="12">
+        <v>2</v>
+      </c>
+      <c r="EN66" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP66" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ66" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER66" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES66" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET66" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU66" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV66" s="9">
+        <v>3</v>
+      </c>
+      <c r="EW66" s="23">
+        <v>3</v>
+      </c>
+      <c r="EX66" s="23">
+        <v>3</v>
+      </c>
+      <c r="EY66" s="23">
+        <v>3</v>
+      </c>
+      <c r="EZ66" s="23">
+        <v>3</v>
+      </c>
+      <c r="FA66" s="23">
+        <v>3</v>
+      </c>
+      <c r="FB66" s="23">
+        <v>3</v>
+      </c>
+      <c r="FC66" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="9">
         <v>2</v>
       </c>
@@ -11995,8 +15590,296 @@
       <c r="AX67" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="3:50" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB67" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ67" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT67" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU67" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV67" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW67" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX67" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY67" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ67" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA67" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB67" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CG67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CH67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CI67" s="12">
+        <v>2</v>
+      </c>
+      <c r="CL67" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN67" s="23">
+        <v>5</v>
+      </c>
+      <c r="CO67" s="23">
+        <v>5</v>
+      </c>
+      <c r="CP67" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ67" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR67" s="23">
+        <v>4</v>
+      </c>
+      <c r="CS67" s="23">
+        <v>5</v>
+      </c>
+      <c r="CT67" s="23">
+        <v>1</v>
+      </c>
+      <c r="CU67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CW67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CY67" s="23">
+        <v>2</v>
+      </c>
+      <c r="CZ67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DA67" s="12">
+        <v>2</v>
+      </c>
+      <c r="DD67" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH67" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI67" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ67" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK67" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL67" s="23">
+        <v>1</v>
+      </c>
+      <c r="DM67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DQ67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DR67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DS67" s="12">
+        <v>2</v>
+      </c>
+      <c r="DV67" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY67" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EA67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EB67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EC67" s="12">
+        <v>2</v>
+      </c>
+      <c r="ED67" s="23">
+        <v>1</v>
+      </c>
+      <c r="EE67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EI67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EJ67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EK67" s="12">
+        <v>2</v>
+      </c>
+      <c r="EN67" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP67" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ67" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER67" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES67" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET67" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU67" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV67" s="9">
+        <v>3</v>
+      </c>
+      <c r="EW67" s="23">
+        <v>3</v>
+      </c>
+      <c r="EX67" s="23">
+        <v>3</v>
+      </c>
+      <c r="EY67" s="23">
+        <v>3</v>
+      </c>
+      <c r="EZ67" s="23">
+        <v>3</v>
+      </c>
+      <c r="FA67" s="23">
+        <v>3</v>
+      </c>
+      <c r="FB67" s="23">
+        <v>3</v>
+      </c>
+      <c r="FC67" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C68" s="9">
         <v>2</v>
       </c>
@@ -12141,8 +16024,296 @@
       <c r="AX68" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB68" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ68" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT68" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU68" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV68" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW68" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX68" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY68" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ68" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA68" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB68" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC68" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD68" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE68" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF68" s="23">
+        <v>3</v>
+      </c>
+      <c r="CG68" s="23">
+        <v>3</v>
+      </c>
+      <c r="CH68" s="23">
+        <v>3</v>
+      </c>
+      <c r="CI68" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL68" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM68" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN68" s="23">
+        <v>5</v>
+      </c>
+      <c r="CO68" s="23">
+        <v>5</v>
+      </c>
+      <c r="CP68" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ68" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR68" s="23">
+        <v>4</v>
+      </c>
+      <c r="CS68" s="23">
+        <v>5</v>
+      </c>
+      <c r="CT68" s="23">
+        <v>1</v>
+      </c>
+      <c r="CU68" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV68" s="23">
+        <v>2</v>
+      </c>
+      <c r="CW68" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX68" s="23">
+        <v>3</v>
+      </c>
+      <c r="CY68" s="23">
+        <v>3</v>
+      </c>
+      <c r="CZ68" s="23">
+        <v>3</v>
+      </c>
+      <c r="DA68" s="12">
+        <v>3</v>
+      </c>
+      <c r="DD68" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH68" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI68" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ68" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK68" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL68" s="23">
+        <v>1</v>
+      </c>
+      <c r="DM68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP68" s="23">
+        <v>3</v>
+      </c>
+      <c r="DQ68" s="23">
+        <v>3</v>
+      </c>
+      <c r="DR68" s="23">
+        <v>3</v>
+      </c>
+      <c r="DS68" s="12">
+        <v>3</v>
+      </c>
+      <c r="DV68" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY68" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EA68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EB68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EC68" s="12">
+        <v>3</v>
+      </c>
+      <c r="ED68" s="23">
+        <v>1</v>
+      </c>
+      <c r="EE68" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF68" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG68" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EI68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EJ68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EK68" s="12">
+        <v>3</v>
+      </c>
+      <c r="EN68" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO68" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP68" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ68" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER68" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES68" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET68" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU68" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV68" s="9">
+        <v>3</v>
+      </c>
+      <c r="EW68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EX68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EY68" s="23">
+        <v>3</v>
+      </c>
+      <c r="EZ68" s="23">
+        <v>3</v>
+      </c>
+      <c r="FA68" s="23">
+        <v>3</v>
+      </c>
+      <c r="FB68" s="23">
+        <v>3</v>
+      </c>
+      <c r="FC68" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="24">
         <v>2</v>
       </c>
@@ -12287,8 +16458,296 @@
       <c r="AX69" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB69" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ69" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT69" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU69" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV69" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW69" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX69" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY69" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ69" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA69" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB69" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC69" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD69" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE69" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF69" s="23">
+        <v>3</v>
+      </c>
+      <c r="CG69" s="23">
+        <v>9</v>
+      </c>
+      <c r="CH69" s="23">
+        <v>9</v>
+      </c>
+      <c r="CI69" s="12">
+        <v>9</v>
+      </c>
+      <c r="CL69" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM69" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN69" s="23">
+        <v>5</v>
+      </c>
+      <c r="CO69" s="23">
+        <v>5</v>
+      </c>
+      <c r="CP69" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ69" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR69" s="23">
+        <v>4</v>
+      </c>
+      <c r="CS69" s="23">
+        <v>5</v>
+      </c>
+      <c r="CT69" s="23">
+        <v>1</v>
+      </c>
+      <c r="CU69" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV69" s="23">
+        <v>2</v>
+      </c>
+      <c r="CW69" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX69" s="23">
+        <v>3</v>
+      </c>
+      <c r="CY69" s="23">
+        <v>9</v>
+      </c>
+      <c r="CZ69" s="23">
+        <v>9</v>
+      </c>
+      <c r="DA69" s="12">
+        <v>9</v>
+      </c>
+      <c r="DD69" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH69" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI69" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ69" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK69" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL69" s="23">
+        <v>1</v>
+      </c>
+      <c r="DM69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP69" s="23">
+        <v>3</v>
+      </c>
+      <c r="DQ69" s="23">
+        <v>9</v>
+      </c>
+      <c r="DR69" s="23">
+        <v>9</v>
+      </c>
+      <c r="DS69" s="12">
+        <v>9</v>
+      </c>
+      <c r="DV69" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY69" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ69" s="23">
+        <v>3</v>
+      </c>
+      <c r="EA69" s="23">
+        <v>9</v>
+      </c>
+      <c r="EB69" s="23">
+        <v>9</v>
+      </c>
+      <c r="EC69" s="12">
+        <v>9</v>
+      </c>
+      <c r="ED69" s="23">
+        <v>1</v>
+      </c>
+      <c r="EE69" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF69" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG69" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH69" s="23">
+        <v>3</v>
+      </c>
+      <c r="EI69" s="23">
+        <v>9</v>
+      </c>
+      <c r="EJ69" s="23">
+        <v>9</v>
+      </c>
+      <c r="EK69" s="12">
+        <v>9</v>
+      </c>
+      <c r="EN69" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO69" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP69" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ69" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER69" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES69" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET69" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU69" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV69" s="9">
+        <v>3</v>
+      </c>
+      <c r="EW69" s="23">
+        <v>3</v>
+      </c>
+      <c r="EX69" s="23">
+        <v>3</v>
+      </c>
+      <c r="EY69" s="23">
+        <v>3</v>
+      </c>
+      <c r="EZ69" s="23">
+        <v>3</v>
+      </c>
+      <c r="FA69" s="23">
+        <v>3</v>
+      </c>
+      <c r="FB69" s="23">
+        <v>3</v>
+      </c>
+      <c r="FC69" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="26">
         <v>2</v>
       </c>
@@ -12433,8 +16892,296 @@
       <c r="AX70" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB70" s="9">
+        <v>3</v>
+      </c>
+      <c r="BC70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BH70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BI70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BJ70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BK70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BL70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BM70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BN70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BO70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BP70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BQ70" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT70" s="9">
+        <v>1</v>
+      </c>
+      <c r="BU70" s="23">
+        <v>2</v>
+      </c>
+      <c r="BV70" s="23">
+        <v>2</v>
+      </c>
+      <c r="BW70" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX70" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY70" s="23">
+        <v>5</v>
+      </c>
+      <c r="BZ70" s="23">
+        <v>4</v>
+      </c>
+      <c r="CA70" s="23">
+        <v>5</v>
+      </c>
+      <c r="CB70" s="23">
+        <v>1</v>
+      </c>
+      <c r="CC70" s="23">
+        <v>2</v>
+      </c>
+      <c r="CD70" s="23">
+        <v>2</v>
+      </c>
+      <c r="CE70" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF70" s="23">
+        <v>3</v>
+      </c>
+      <c r="CG70" s="23">
+        <v>9</v>
+      </c>
+      <c r="CH70" s="23">
+        <v>12</v>
+      </c>
+      <c r="CI70" s="12">
+        <v>12</v>
+      </c>
+      <c r="CL70" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM70" s="23">
+        <v>2</v>
+      </c>
+      <c r="CN70" s="23">
+        <v>5</v>
+      </c>
+      <c r="CO70" s="23">
+        <v>5</v>
+      </c>
+      <c r="CP70" s="23">
+        <v>3</v>
+      </c>
+      <c r="CQ70" s="23">
+        <v>5</v>
+      </c>
+      <c r="CR70" s="23">
+        <v>4</v>
+      </c>
+      <c r="CS70" s="23">
+        <v>5</v>
+      </c>
+      <c r="CT70" s="23">
+        <v>1</v>
+      </c>
+      <c r="CU70" s="23">
+        <v>2</v>
+      </c>
+      <c r="CV70" s="23">
+        <v>2</v>
+      </c>
+      <c r="CW70" s="23">
+        <v>2</v>
+      </c>
+      <c r="CX70" s="23">
+        <v>3</v>
+      </c>
+      <c r="CY70" s="23">
+        <v>9</v>
+      </c>
+      <c r="CZ70" s="23">
+        <v>12</v>
+      </c>
+      <c r="DA70" s="12">
+        <v>12</v>
+      </c>
+      <c r="DD70" s="9">
+        <v>1</v>
+      </c>
+      <c r="DE70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DF70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DH70" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI70" s="23">
+        <v>5</v>
+      </c>
+      <c r="DJ70" s="23">
+        <v>4</v>
+      </c>
+      <c r="DK70" s="23">
+        <v>5</v>
+      </c>
+      <c r="DL70" s="23">
+        <v>1</v>
+      </c>
+      <c r="DM70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DO70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DP70" s="23">
+        <v>3</v>
+      </c>
+      <c r="DQ70" s="23">
+        <v>9</v>
+      </c>
+      <c r="DR70" s="23">
+        <v>12</v>
+      </c>
+      <c r="DS70" s="12">
+        <v>12</v>
+      </c>
+      <c r="DV70" s="9">
+        <v>1</v>
+      </c>
+      <c r="DW70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DX70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DY70" s="23">
+        <v>2</v>
+      </c>
+      <c r="DZ70" s="23">
+        <v>3</v>
+      </c>
+      <c r="EA70" s="23">
+        <v>9</v>
+      </c>
+      <c r="EB70" s="23">
+        <v>12</v>
+      </c>
+      <c r="EC70" s="12">
+        <v>12</v>
+      </c>
+      <c r="ED70" s="23">
+        <v>1</v>
+      </c>
+      <c r="EE70" s="23">
+        <v>2</v>
+      </c>
+      <c r="EF70" s="23">
+        <v>2</v>
+      </c>
+      <c r="EG70" s="23">
+        <v>2</v>
+      </c>
+      <c r="EH70" s="23">
+        <v>3</v>
+      </c>
+      <c r="EI70" s="23">
+        <v>9</v>
+      </c>
+      <c r="EJ70" s="23">
+        <v>12</v>
+      </c>
+      <c r="EK70" s="12">
+        <v>12</v>
+      </c>
+      <c r="EN70" s="9">
+        <v>1</v>
+      </c>
+      <c r="EO70" s="23">
+        <v>2</v>
+      </c>
+      <c r="EP70" s="23">
+        <v>2</v>
+      </c>
+      <c r="EQ70" s="23">
+        <v>2</v>
+      </c>
+      <c r="ER70" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES70" s="23">
+        <v>5</v>
+      </c>
+      <c r="ET70" s="23">
+        <v>4</v>
+      </c>
+      <c r="EU70" s="23">
+        <v>5</v>
+      </c>
+      <c r="EV70" s="9">
+        <v>3</v>
+      </c>
+      <c r="EW70" s="23">
+        <v>3</v>
+      </c>
+      <c r="EX70" s="23">
+        <v>3</v>
+      </c>
+      <c r="EY70" s="23">
+        <v>3</v>
+      </c>
+      <c r="EZ70" s="23">
+        <v>3</v>
+      </c>
+      <c r="FA70" s="23">
+        <v>3</v>
+      </c>
+      <c r="FB70" s="23">
+        <v>3</v>
+      </c>
+      <c r="FC70" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C71" s="26">
         <v>2</v>
       </c>
@@ -12579,8 +17326,296 @@
       <c r="AX71" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="3:50" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB71" s="16">
+        <v>3</v>
+      </c>
+      <c r="BC71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BD71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BF71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BG71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BI71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BJ71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BL71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BM71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BN71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BO71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BP71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BQ71" s="15">
+        <v>3</v>
+      </c>
+      <c r="BT71" s="16">
+        <v>1</v>
+      </c>
+      <c r="BU71" s="14">
+        <v>2</v>
+      </c>
+      <c r="BV71" s="14">
+        <v>2</v>
+      </c>
+      <c r="BW71" s="14">
+        <v>2</v>
+      </c>
+      <c r="BX71" s="14">
+        <v>3</v>
+      </c>
+      <c r="BY71" s="14">
+        <v>5</v>
+      </c>
+      <c r="BZ71" s="14">
+        <v>4</v>
+      </c>
+      <c r="CA71" s="14">
+        <v>5</v>
+      </c>
+      <c r="CB71" s="14">
+        <v>1</v>
+      </c>
+      <c r="CC71" s="14">
+        <v>2</v>
+      </c>
+      <c r="CD71" s="14">
+        <v>2</v>
+      </c>
+      <c r="CE71" s="14">
+        <v>2</v>
+      </c>
+      <c r="CF71" s="14">
+        <v>3</v>
+      </c>
+      <c r="CG71" s="14">
+        <v>9</v>
+      </c>
+      <c r="CH71" s="14">
+        <v>12</v>
+      </c>
+      <c r="CI71" s="15">
+        <v>1</v>
+      </c>
+      <c r="CL71" s="16">
+        <v>1</v>
+      </c>
+      <c r="CM71" s="14">
+        <v>2</v>
+      </c>
+      <c r="CN71" s="14">
+        <v>5</v>
+      </c>
+      <c r="CO71" s="14">
+        <v>5</v>
+      </c>
+      <c r="CP71" s="14">
+        <v>3</v>
+      </c>
+      <c r="CQ71" s="14">
+        <v>5</v>
+      </c>
+      <c r="CR71" s="14">
+        <v>4</v>
+      </c>
+      <c r="CS71" s="14">
+        <v>5</v>
+      </c>
+      <c r="CT71" s="14">
+        <v>1</v>
+      </c>
+      <c r="CU71" s="14">
+        <v>2</v>
+      </c>
+      <c r="CV71" s="14">
+        <v>2</v>
+      </c>
+      <c r="CW71" s="14">
+        <v>2</v>
+      </c>
+      <c r="CX71" s="14">
+        <v>3</v>
+      </c>
+      <c r="CY71" s="14">
+        <v>9</v>
+      </c>
+      <c r="CZ71" s="14">
+        <v>12</v>
+      </c>
+      <c r="DA71" s="15">
+        <v>1</v>
+      </c>
+      <c r="DD71" s="16">
+        <v>1</v>
+      </c>
+      <c r="DE71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DF71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DG71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DH71" s="14">
+        <v>3</v>
+      </c>
+      <c r="DI71" s="14">
+        <v>5</v>
+      </c>
+      <c r="DJ71" s="14">
+        <v>4</v>
+      </c>
+      <c r="DK71" s="14">
+        <v>5</v>
+      </c>
+      <c r="DL71" s="14">
+        <v>1</v>
+      </c>
+      <c r="DM71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DN71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DO71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DP71" s="14">
+        <v>3</v>
+      </c>
+      <c r="DQ71" s="14">
+        <v>9</v>
+      </c>
+      <c r="DR71" s="14">
+        <v>12</v>
+      </c>
+      <c r="DS71" s="15">
+        <v>1</v>
+      </c>
+      <c r="DV71" s="16">
+        <v>1</v>
+      </c>
+      <c r="DW71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DX71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DY71" s="14">
+        <v>2</v>
+      </c>
+      <c r="DZ71" s="14">
+        <v>3</v>
+      </c>
+      <c r="EA71" s="14">
+        <v>9</v>
+      </c>
+      <c r="EB71" s="14">
+        <v>12</v>
+      </c>
+      <c r="EC71" s="15">
+        <v>1</v>
+      </c>
+      <c r="ED71" s="14">
+        <v>1</v>
+      </c>
+      <c r="EE71" s="14">
+        <v>2</v>
+      </c>
+      <c r="EF71" s="14">
+        <v>2</v>
+      </c>
+      <c r="EG71" s="14">
+        <v>2</v>
+      </c>
+      <c r="EH71" s="14">
+        <v>3</v>
+      </c>
+      <c r="EI71" s="14">
+        <v>9</v>
+      </c>
+      <c r="EJ71" s="14">
+        <v>12</v>
+      </c>
+      <c r="EK71" s="15">
+        <v>1</v>
+      </c>
+      <c r="EN71" s="16">
+        <v>1</v>
+      </c>
+      <c r="EO71" s="14">
+        <v>2</v>
+      </c>
+      <c r="EP71" s="14">
+        <v>2</v>
+      </c>
+      <c r="EQ71" s="14">
+        <v>2</v>
+      </c>
+      <c r="ER71" s="14">
+        <v>3</v>
+      </c>
+      <c r="ES71" s="14">
+        <v>5</v>
+      </c>
+      <c r="ET71" s="14">
+        <v>4</v>
+      </c>
+      <c r="EU71" s="14">
+        <v>5</v>
+      </c>
+      <c r="EV71" s="16">
+        <v>3</v>
+      </c>
+      <c r="EW71" s="14">
+        <v>3</v>
+      </c>
+      <c r="EX71" s="14">
+        <v>3</v>
+      </c>
+      <c r="EY71" s="14">
+        <v>3</v>
+      </c>
+      <c r="EZ71" s="14">
+        <v>3</v>
+      </c>
+      <c r="FA71" s="14">
+        <v>3</v>
+      </c>
+      <c r="FB71" s="14">
+        <v>3</v>
+      </c>
+      <c r="FC71" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="17">
         <v>2</v>
       </c>
@@ -12726,7 +17761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="9">
         <v>25</v>
       </c>
@@ -12872,7 +17907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="9">
         <v>25</v>
       </c>
@@ -13018,7 +18053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="3:50" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:159" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="9">
         <v>25</v>
       </c>
@@ -13164,7 +18199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="3:50" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:159" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C76" s="16">
         <v>25</v>
       </c>
@@ -13322,1348 +18357,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC41DB11-EEAC-4B9E-8F4F-B463DA54F29F}">
-  <dimension ref="A1:Q25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>2560</v>
-      </c>
-      <c r="E1">
-        <v>1600</v>
-      </c>
-      <c r="F1">
-        <v>39819</v>
-      </c>
-      <c r="G1">
-        <v>38950</v>
-      </c>
-      <c r="H1">
-        <v>38854</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2560</v>
-      </c>
-      <c r="E2">
-        <v>1600</v>
-      </c>
-      <c r="F2">
-        <v>56346</v>
-      </c>
-      <c r="G2">
-        <v>53767</v>
-      </c>
-      <c r="H2">
-        <v>53647</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1920</v>
-      </c>
-      <c r="E3">
-        <v>1080</v>
-      </c>
-      <c r="F3">
-        <v>46738</v>
-      </c>
-      <c r="G3">
-        <v>39042</v>
-      </c>
-      <c r="H3">
-        <v>39018</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1920</v>
-      </c>
-      <c r="E4">
-        <v>1080</v>
-      </c>
-      <c r="F4">
-        <v>45984</v>
-      </c>
-      <c r="G4">
-        <v>46527</v>
-      </c>
-      <c r="H4">
-        <v>45887</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1920</v>
-      </c>
-      <c r="E5">
-        <v>1080</v>
-      </c>
-      <c r="F5">
-        <v>49757</v>
-      </c>
-      <c r="G5">
-        <v>50343</v>
-      </c>
-      <c r="H5">
-        <v>49666</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1920</v>
-      </c>
-      <c r="E6">
-        <v>1080</v>
-      </c>
-      <c r="F6">
-        <v>48830</v>
-      </c>
-      <c r="G6">
-        <v>48357</v>
-      </c>
-      <c r="H6">
-        <v>48261</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>1920</v>
-      </c>
-      <c r="E7">
-        <v>1080</v>
-      </c>
-      <c r="F7">
-        <v>65321</v>
-      </c>
-      <c r="G7">
-        <v>64460</v>
-      </c>
-      <c r="H7">
-        <v>64336</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>832</v>
-      </c>
-      <c r="E8">
-        <v>480</v>
-      </c>
-      <c r="F8">
-        <v>41263</v>
-      </c>
-      <c r="G8">
-        <v>42080</v>
-      </c>
-      <c r="H8">
-        <v>41244</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>832</v>
-      </c>
-      <c r="E9">
-        <v>480</v>
-      </c>
-      <c r="F9">
-        <v>65947</v>
-      </c>
-      <c r="G9">
-        <v>64218</v>
-      </c>
-      <c r="H9">
-        <v>63981</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>832</v>
-      </c>
-      <c r="E10">
-        <v>480</v>
-      </c>
-      <c r="F10">
-        <v>91883</v>
-      </c>
-      <c r="G10">
-        <v>90199</v>
-      </c>
-      <c r="H10">
-        <v>90144</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>832</v>
-      </c>
-      <c r="E11">
-        <v>480</v>
-      </c>
-      <c r="F11">
-        <v>82375</v>
-      </c>
-      <c r="G11">
-        <v>81923</v>
-      </c>
-      <c r="H11">
-        <v>81758</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>416</v>
-      </c>
-      <c r="E12">
-        <v>240</v>
-      </c>
-      <c r="F12">
-        <v>81045</v>
-      </c>
-      <c r="G12">
-        <v>79731</v>
-      </c>
-      <c r="H12">
-        <v>79600</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <v>416</v>
-      </c>
-      <c r="E13">
-        <v>240</v>
-      </c>
-      <c r="F13">
-        <v>55439</v>
-      </c>
-      <c r="G13">
-        <v>54061</v>
-      </c>
-      <c r="H13">
-        <v>54018</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>416</v>
-      </c>
-      <c r="E14">
-        <v>240</v>
-      </c>
-      <c r="F14">
-        <v>72294</v>
-      </c>
-      <c r="G14">
-        <v>71173</v>
-      </c>
-      <c r="H14">
-        <v>71109</v>
-      </c>
-      <c r="I14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15">
-        <v>416</v>
-      </c>
-      <c r="E15">
-        <v>240</v>
-      </c>
-      <c r="F15">
-        <v>70504</v>
-      </c>
-      <c r="G15">
-        <v>69510</v>
-      </c>
-      <c r="H15">
-        <v>69460</v>
-      </c>
-      <c r="I15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16">
-        <v>1280</v>
-      </c>
-      <c r="E16">
-        <v>720</v>
-      </c>
-      <c r="F16">
-        <v>44243</v>
-      </c>
-      <c r="G16">
-        <v>43455</v>
-      </c>
-      <c r="H16">
-        <v>43062</v>
-      </c>
-      <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <v>1280</v>
-      </c>
-      <c r="E17">
-        <v>720</v>
-      </c>
-      <c r="F17">
-        <v>36643</v>
-      </c>
-      <c r="G17">
-        <v>36724</v>
-      </c>
-      <c r="H17">
-        <v>36091</v>
-      </c>
-      <c r="I17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18">
-        <v>1280</v>
-      </c>
-      <c r="E18">
-        <v>720</v>
-      </c>
-      <c r="F18">
-        <v>34647</v>
-      </c>
-      <c r="G18">
-        <v>34881</v>
-      </c>
-      <c r="H18">
-        <v>34241</v>
-      </c>
-      <c r="I18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O18" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19">
-        <v>1280</v>
-      </c>
-      <c r="E19">
-        <v>720</v>
-      </c>
-      <c r="F19">
-        <v>42358</v>
-      </c>
-      <c r="G19">
-        <v>41702</v>
-      </c>
-      <c r="H19">
-        <v>41460</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20">
-        <v>1280</v>
-      </c>
-      <c r="E20">
-        <v>720</v>
-      </c>
-      <c r="F20">
-        <v>42743</v>
-      </c>
-      <c r="G20">
-        <v>42205</v>
-      </c>
-      <c r="H20">
-        <v>41789</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21">
-        <v>1280</v>
-      </c>
-      <c r="E21">
-        <v>720</v>
-      </c>
-      <c r="F21">
-        <v>45670</v>
-      </c>
-      <c r="G21">
-        <v>43760</v>
-      </c>
-      <c r="H21">
-        <v>43557</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" t="s">
-        <v>77</v>
-      </c>
-      <c r="P21" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>832</v>
-      </c>
-      <c r="E22">
-        <v>480</v>
-      </c>
-      <c r="F22">
-        <v>65947</v>
-      </c>
-      <c r="G22">
-        <v>64218</v>
-      </c>
-      <c r="H22">
-        <v>63981</v>
-      </c>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23">
-        <v>1024</v>
-      </c>
-      <c r="E23">
-        <v>768</v>
-      </c>
-      <c r="F23">
-        <v>64193</v>
-      </c>
-      <c r="G23">
-        <v>61079</v>
-      </c>
-      <c r="H23">
-        <v>60910</v>
-      </c>
-      <c r="I23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" t="s">
-        <v>105</v>
-      </c>
-      <c r="N23" t="s">
-        <v>105</v>
-      </c>
-      <c r="O23" t="s">
-        <v>105</v>
-      </c>
-      <c r="P23" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24">
-        <v>1280</v>
-      </c>
-      <c r="E24">
-        <v>720</v>
-      </c>
-      <c r="F24">
-        <v>43565</v>
-      </c>
-      <c r="G24">
-        <v>42789</v>
-      </c>
-      <c r="H24">
-        <v>41923</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" t="s">
-        <v>77</v>
-      </c>
-      <c r="O24" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25">
-        <v>1280</v>
-      </c>
-      <c r="E25">
-        <v>720</v>
-      </c>
-      <c r="F25">
-        <v>40313</v>
-      </c>
-      <c r="G25">
-        <v>38875</v>
-      </c>
-      <c r="H25">
-        <v>38604</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" t="s">
-        <v>77</v>
-      </c>
-      <c r="O25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E0E51-F2C8-481E-BE1A-6D6C03C498F4}">
   <dimension ref="A1:J342"/>
   <sheetViews>
@@ -14675,34 +18368,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">

--- a/杂物.xlsx
+++ b/杂物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NewCodec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE650AF-EB42-4253-A524-4D72837D99EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B18A617-75FB-414A-9B2A-DDBD751CF3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分块341次扫描顺序!$A$1:$I$342</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:FU76"/>
+  <dimension ref="C1:IO76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="FL67" sqref="FL67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE33" sqref="BE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="BW23" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX23" s="9"/>
       <c r="BY23" s="23"/>
@@ -2949,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="CO23" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CP23" s="16">
         <v>5</v>
@@ -3191,10 +3191,10 @@
         <v>9</v>
       </c>
       <c r="CR26" s="23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="CS26" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="CT26" s="23"/>
       <c r="CU26" s="23"/>
@@ -3257,10 +3257,10 @@
         <v>9</v>
       </c>
       <c r="CR27" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="CS27" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CT27" s="23"/>
       <c r="CU27" s="23"/>
@@ -4097,7 +4097,7 @@
       <c r="CZ32" s="23"/>
       <c r="DA32" s="12"/>
     </row>
-    <row r="33" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="9">
         <v>14</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="CZ33" s="23"/>
       <c r="DA33" s="12"/>
     </row>
-    <row r="34" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>14</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="CZ34" s="23"/>
       <c r="DA34" s="12"/>
     </row>
-    <row r="35" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="9">
         <v>14</v>
       </c>
@@ -4679,7 +4679,7 @@
       <c r="CZ35" s="14"/>
       <c r="DA35" s="15"/>
     </row>
-    <row r="36" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="9">
         <v>14</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="9">
         <v>1</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="9">
         <v>1</v>
       </c>
@@ -5157,20 +5157,20 @@
       <c r="BV38" s="5">
         <v>1</v>
       </c>
-      <c r="BW38" s="5">
+      <c r="BW38" s="8">
         <v>1</v>
       </c>
       <c r="BX38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CA38" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CB38" s="5"/>
       <c r="CC38" s="5"/>
@@ -5181,28 +5181,28 @@
       <c r="CH38" s="5"/>
       <c r="CI38" s="8"/>
       <c r="CL38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CN38" s="5">
-        <v>1</v>
-      </c>
-      <c r="CO38" s="8">
-        <v>1</v>
-      </c>
-      <c r="CP38" s="5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="CO38" s="5">
+        <v>3</v>
+      </c>
+      <c r="CP38" s="4">
+        <v>5</v>
       </c>
       <c r="CQ38" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CR38" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CS38" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CT38" s="5"/>
       <c r="CU38" s="5"/>
@@ -5213,28 +5213,28 @@
       <c r="CZ38" s="5"/>
       <c r="DA38" s="8"/>
       <c r="DD38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DE38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DF38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DG38" s="5">
-        <v>1</v>
-      </c>
-      <c r="DH38" s="4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="DH38" s="5">
+        <v>3</v>
       </c>
       <c r="DI38" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DJ38" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DK38" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DL38" s="5"/>
       <c r="DM38" s="5"/>
@@ -5245,28 +5245,28 @@
       <c r="DR38" s="5"/>
       <c r="DS38" s="8"/>
       <c r="DV38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DW38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DX38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DY38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DZ38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EA38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EB38" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EC38" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="ED38" s="5"/>
       <c r="EE38" s="5"/>
@@ -5317,47 +5317,175 @@
       <c r="FH38" s="5">
         <v>1</v>
       </c>
-      <c r="FI38" s="5">
-        <v>1</v>
-      </c>
-      <c r="FJ38" s="4">
-        <v>5</v>
+      <c r="FI38" s="8">
+        <v>1</v>
+      </c>
+      <c r="FJ38" s="5">
+        <v>1</v>
       </c>
       <c r="FK38" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="FL38" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="FM38" s="8">
-        <v>5</v>
-      </c>
-      <c r="FN38" s="4">
-        <v>1</v>
-      </c>
-      <c r="FO38" s="5">
-        <v>1</v>
-      </c>
-      <c r="FP38" s="5">
-        <v>1</v>
-      </c>
-      <c r="FQ38" s="8">
-        <v>1</v>
-      </c>
-      <c r="FR38" s="4">
-        <v>5</v>
-      </c>
-      <c r="FS38" s="5">
-        <v>5</v>
-      </c>
-      <c r="FT38" s="5">
-        <v>5</v>
-      </c>
-      <c r="FU38" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="FN38" s="5"/>
+      <c r="FO38" s="5"/>
+      <c r="FP38" s="5"/>
+      <c r="FQ38" s="5"/>
+      <c r="FR38" s="5"/>
+      <c r="FS38" s="5"/>
+      <c r="FT38" s="5"/>
+      <c r="FU38" s="8"/>
+      <c r="FX38" s="4">
+        <v>1</v>
+      </c>
+      <c r="FY38" s="5">
+        <v>1</v>
+      </c>
+      <c r="FZ38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GA38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GB38" s="4">
+        <v>5</v>
+      </c>
+      <c r="GC38" s="5">
+        <v>5</v>
+      </c>
+      <c r="GD38" s="5">
+        <v>5</v>
+      </c>
+      <c r="GE38" s="8">
+        <v>5</v>
+      </c>
+      <c r="GF38" s="5"/>
+      <c r="GG38" s="5"/>
+      <c r="GH38" s="5"/>
+      <c r="GI38" s="5"/>
+      <c r="GJ38" s="5"/>
+      <c r="GK38" s="5"/>
+      <c r="GL38" s="5"/>
+      <c r="GM38" s="8"/>
+      <c r="GP38" s="4">
+        <v>1</v>
+      </c>
+      <c r="GQ38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GR38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GS38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GT38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GU38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GV38" s="5">
+        <v>1</v>
+      </c>
+      <c r="GW38" s="8">
+        <v>1</v>
+      </c>
+      <c r="GX38" s="5"/>
+      <c r="GY38" s="5"/>
+      <c r="GZ38" s="5"/>
+      <c r="HA38" s="5"/>
+      <c r="HB38" s="5"/>
+      <c r="HC38" s="5"/>
+      <c r="HD38" s="5"/>
+      <c r="HE38" s="8"/>
+      <c r="HH38" s="4">
+        <v>1</v>
+      </c>
+      <c r="HI38" s="5">
+        <v>1</v>
+      </c>
+      <c r="HJ38" s="5">
+        <v>1</v>
+      </c>
+      <c r="HK38" s="5">
+        <v>1</v>
+      </c>
+      <c r="HL38" s="5">
+        <v>1</v>
+      </c>
+      <c r="HM38" s="5">
+        <v>1</v>
+      </c>
+      <c r="HN38" s="5">
+        <v>1</v>
+      </c>
+      <c r="HO38" s="8">
+        <v>1</v>
+      </c>
+      <c r="HP38" s="5"/>
+      <c r="HQ38" s="5"/>
+      <c r="HR38" s="5"/>
+      <c r="HS38" s="5"/>
+      <c r="HT38" s="5"/>
+      <c r="HU38" s="5"/>
+      <c r="HV38" s="5"/>
+      <c r="HW38" s="8"/>
+      <c r="HZ38" s="4">
+        <v>1</v>
+      </c>
+      <c r="IA38" s="5">
+        <v>1</v>
+      </c>
+      <c r="IB38" s="5">
+        <v>1</v>
+      </c>
+      <c r="IC38" s="5">
+        <v>1</v>
+      </c>
+      <c r="ID38" s="4">
+        <v>5</v>
+      </c>
+      <c r="IE38" s="5">
+        <v>5</v>
+      </c>
+      <c r="IF38" s="5">
+        <v>5</v>
+      </c>
+      <c r="IG38" s="8">
+        <v>5</v>
+      </c>
+      <c r="IH38" s="4">
+        <v>1</v>
+      </c>
+      <c r="II38" s="5">
+        <v>1</v>
+      </c>
+      <c r="IJ38" s="5">
+        <v>1</v>
+      </c>
+      <c r="IK38" s="8">
+        <v>1</v>
+      </c>
+      <c r="IL38" s="4">
+        <v>5</v>
+      </c>
+      <c r="IM38" s="5">
+        <v>5</v>
+      </c>
+      <c r="IN38" s="5">
+        <v>5</v>
+      </c>
+      <c r="IO38" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="9">
         <v>1</v>
       </c>
@@ -5538,25 +5666,25 @@
         <v>1</v>
       </c>
       <c r="BU39" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BV39" s="23">
-        <v>2</v>
-      </c>
-      <c r="BW39" s="23">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BW39" s="12">
+        <v>5</v>
       </c>
       <c r="BX39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA39" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB39" s="23"/>
       <c r="CC39" s="23"/>
@@ -5567,28 +5695,28 @@
       <c r="CH39" s="23"/>
       <c r="CI39" s="12"/>
       <c r="CL39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM39" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CN39" s="23">
-        <v>5</v>
-      </c>
-      <c r="CO39" s="12">
-        <v>5</v>
-      </c>
-      <c r="CP39" s="23">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="CO39" s="23">
+        <v>3</v>
+      </c>
+      <c r="CP39" s="9">
+        <v>5</v>
       </c>
       <c r="CQ39" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CR39" s="23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CS39" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CT39" s="23"/>
       <c r="CU39" s="23"/>
@@ -5599,28 +5727,28 @@
       <c r="CZ39" s="23"/>
       <c r="DA39" s="12"/>
       <c r="DD39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DE39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DG39" s="23">
-        <v>2</v>
-      </c>
-      <c r="DH39" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="DH39" s="23">
+        <v>3</v>
       </c>
       <c r="DI39" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DJ39" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DK39" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DL39" s="23"/>
       <c r="DM39" s="23"/>
@@ -5631,28 +5759,28 @@
       <c r="DR39" s="23"/>
       <c r="DS39" s="12"/>
       <c r="DV39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DW39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DX39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DY39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DZ39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EA39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EB39" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC39" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="ED39" s="23"/>
       <c r="EE39" s="23"/>
@@ -5698,52 +5826,180 @@
         <v>1</v>
       </c>
       <c r="FG39" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FH39" s="23">
-        <v>2</v>
-      </c>
-      <c r="FI39" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ39" s="9">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="FI39" s="12">
+        <v>5</v>
+      </c>
+      <c r="FJ39" s="23">
+        <v>7</v>
       </c>
       <c r="FK39" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="FL39" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="FM39" s="12">
-        <v>5</v>
-      </c>
-      <c r="FN39" s="9">
-        <v>1</v>
-      </c>
-      <c r="FO39" s="23">
-        <v>5</v>
-      </c>
-      <c r="FP39" s="23">
-        <v>5</v>
-      </c>
-      <c r="FQ39" s="12">
-        <v>5</v>
-      </c>
-      <c r="FR39" s="9">
-        <v>5</v>
-      </c>
-      <c r="FS39" s="23">
-        <v>5</v>
-      </c>
-      <c r="FT39" s="23">
-        <v>5</v>
-      </c>
-      <c r="FU39" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="FN39" s="23"/>
+      <c r="FO39" s="23"/>
+      <c r="FP39" s="23"/>
+      <c r="FQ39" s="23"/>
+      <c r="FR39" s="23"/>
+      <c r="FS39" s="23"/>
+      <c r="FT39" s="23"/>
+      <c r="FU39" s="12"/>
+      <c r="FX39" s="9">
+        <v>1</v>
+      </c>
+      <c r="FY39" s="23">
+        <v>2</v>
+      </c>
+      <c r="FZ39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GA39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GB39" s="9">
+        <v>5</v>
+      </c>
+      <c r="GC39" s="23">
+        <v>5</v>
+      </c>
+      <c r="GD39" s="23">
+        <v>5</v>
+      </c>
+      <c r="GE39" s="12">
+        <v>5</v>
+      </c>
+      <c r="GF39" s="23"/>
+      <c r="GG39" s="23"/>
+      <c r="GH39" s="23"/>
+      <c r="GI39" s="23"/>
+      <c r="GJ39" s="23"/>
+      <c r="GK39" s="23"/>
+      <c r="GL39" s="23"/>
+      <c r="GM39" s="12"/>
+      <c r="GP39" s="9">
+        <v>1</v>
+      </c>
+      <c r="GQ39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GR39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GS39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GT39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GU39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GV39" s="23">
+        <v>2</v>
+      </c>
+      <c r="GW39" s="12">
+        <v>2</v>
+      </c>
+      <c r="GX39" s="23"/>
+      <c r="GY39" s="23"/>
+      <c r="GZ39" s="23"/>
+      <c r="HA39" s="23"/>
+      <c r="HB39" s="23"/>
+      <c r="HC39" s="23"/>
+      <c r="HD39" s="23"/>
+      <c r="HE39" s="12"/>
+      <c r="HH39" s="9">
+        <v>1</v>
+      </c>
+      <c r="HI39" s="23">
+        <v>2</v>
+      </c>
+      <c r="HJ39" s="23">
+        <v>2</v>
+      </c>
+      <c r="HK39" s="23">
+        <v>2</v>
+      </c>
+      <c r="HL39" s="23">
+        <v>2</v>
+      </c>
+      <c r="HM39" s="23">
+        <v>2</v>
+      </c>
+      <c r="HN39" s="23">
+        <v>2</v>
+      </c>
+      <c r="HO39" s="12">
+        <v>2</v>
+      </c>
+      <c r="HP39" s="23"/>
+      <c r="HQ39" s="23"/>
+      <c r="HR39" s="23"/>
+      <c r="HS39" s="23"/>
+      <c r="HT39" s="23"/>
+      <c r="HU39" s="23"/>
+      <c r="HV39" s="23"/>
+      <c r="HW39" s="12"/>
+      <c r="HZ39" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA39" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB39" s="23">
+        <v>2</v>
+      </c>
+      <c r="IC39" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID39" s="9">
+        <v>5</v>
+      </c>
+      <c r="IE39" s="23">
+        <v>5</v>
+      </c>
+      <c r="IF39" s="23">
+        <v>5</v>
+      </c>
+      <c r="IG39" s="12">
+        <v>5</v>
+      </c>
+      <c r="IH39" s="9">
+        <v>1</v>
+      </c>
+      <c r="II39" s="23">
+        <v>5</v>
+      </c>
+      <c r="IJ39" s="23">
+        <v>5</v>
+      </c>
+      <c r="IK39" s="12">
+        <v>5</v>
+      </c>
+      <c r="IL39" s="9">
+        <v>5</v>
+      </c>
+      <c r="IM39" s="23">
+        <v>5</v>
+      </c>
+      <c r="IN39" s="23">
+        <v>5</v>
+      </c>
+      <c r="IO39" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="9">
         <v>1</v>
       </c>
@@ -5924,25 +6180,25 @@
         <v>1</v>
       </c>
       <c r="BU40" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BV40" s="23">
-        <v>2</v>
-      </c>
-      <c r="BW40" s="23">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="BW40" s="12">
+        <v>5</v>
       </c>
       <c r="BX40" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY40" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ40" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA40" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB40" s="23"/>
       <c r="CC40" s="23"/>
@@ -5953,28 +6209,28 @@
       <c r="CH40" s="23"/>
       <c r="CI40" s="12"/>
       <c r="CL40" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM40" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CN40" s="23">
-        <v>5</v>
-      </c>
-      <c r="CO40" s="12">
-        <v>5</v>
-      </c>
-      <c r="CP40" s="23">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="CO40" s="23">
+        <v>3</v>
+      </c>
+      <c r="CP40" s="9">
+        <v>5</v>
       </c>
       <c r="CQ40" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CR40" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CS40" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CT40" s="23"/>
       <c r="CU40" s="23"/>
@@ -5985,28 +6241,28 @@
       <c r="CZ40" s="23"/>
       <c r="DA40" s="12"/>
       <c r="DD40" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DE40" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF40" s="23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="DG40" s="23">
-        <v>8</v>
-      </c>
-      <c r="DH40" s="9">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="DH40" s="23">
+        <v>3</v>
       </c>
       <c r="DI40" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DJ40" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DK40" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DL40" s="23"/>
       <c r="DM40" s="23"/>
@@ -6017,28 +6273,28 @@
       <c r="DR40" s="23"/>
       <c r="DS40" s="12"/>
       <c r="DV40" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DW40" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DX40" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DY40" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DZ40" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="EA40" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="EB40" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="EC40" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="ED40" s="23"/>
       <c r="EE40" s="23"/>
@@ -6084,52 +6340,180 @@
         <v>1</v>
       </c>
       <c r="FG40" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FH40" s="23">
+        <v>5</v>
+      </c>
+      <c r="FI40" s="12">
+        <v>5</v>
+      </c>
+      <c r="FJ40" s="23">
+        <v>2</v>
+      </c>
+      <c r="FK40" s="23">
+        <v>2</v>
+      </c>
+      <c r="FL40" s="23">
+        <v>2</v>
+      </c>
+      <c r="FM40" s="12">
+        <v>2</v>
+      </c>
+      <c r="FN40" s="23"/>
+      <c r="FO40" s="23"/>
+      <c r="FP40" s="23"/>
+      <c r="FQ40" s="23"/>
+      <c r="FR40" s="23"/>
+      <c r="FS40" s="23"/>
+      <c r="FT40" s="23"/>
+      <c r="FU40" s="12"/>
+      <c r="FX40" s="9">
+        <v>1</v>
+      </c>
+      <c r="FY40" s="23">
+        <v>2</v>
+      </c>
+      <c r="FZ40" s="23">
         <v>8</v>
       </c>
-      <c r="FI40" s="23">
+      <c r="GA40" s="23">
         <v>8</v>
       </c>
-      <c r="FJ40" s="9">
-        <v>5</v>
-      </c>
-      <c r="FK40" s="23">
-        <v>5</v>
-      </c>
-      <c r="FL40" s="23">
-        <v>5</v>
-      </c>
-      <c r="FM40" s="12">
-        <v>5</v>
-      </c>
-      <c r="FN40" s="9">
-        <v>1</v>
-      </c>
-      <c r="FO40" s="23">
-        <v>5</v>
-      </c>
-      <c r="FP40" s="23">
-        <v>5</v>
-      </c>
-      <c r="FQ40" s="12">
-        <v>5</v>
-      </c>
-      <c r="FR40" s="9">
-        <v>5</v>
-      </c>
-      <c r="FS40" s="23">
-        <v>5</v>
-      </c>
-      <c r="FT40" s="23">
-        <v>5</v>
-      </c>
-      <c r="FU40" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="GB40" s="9">
+        <v>5</v>
+      </c>
+      <c r="GC40" s="23">
+        <v>5</v>
+      </c>
+      <c r="GD40" s="23">
+        <v>5</v>
+      </c>
+      <c r="GE40" s="12">
+        <v>5</v>
+      </c>
+      <c r="GF40" s="23"/>
+      <c r="GG40" s="23"/>
+      <c r="GH40" s="23"/>
+      <c r="GI40" s="23"/>
+      <c r="GJ40" s="23"/>
+      <c r="GK40" s="23"/>
+      <c r="GL40" s="23"/>
+      <c r="GM40" s="12"/>
+      <c r="GP40" s="9">
+        <v>1</v>
+      </c>
+      <c r="GQ40" s="23">
+        <v>2</v>
+      </c>
+      <c r="GR40" s="23">
+        <v>6</v>
+      </c>
+      <c r="GS40" s="23">
+        <v>6</v>
+      </c>
+      <c r="GT40" s="23">
+        <v>6</v>
+      </c>
+      <c r="GU40" s="23">
+        <v>6</v>
+      </c>
+      <c r="GV40" s="23">
+        <v>6</v>
+      </c>
+      <c r="GW40" s="12">
+        <v>6</v>
+      </c>
+      <c r="GX40" s="23"/>
+      <c r="GY40" s="23"/>
+      <c r="GZ40" s="23"/>
+      <c r="HA40" s="23"/>
+      <c r="HB40" s="23"/>
+      <c r="HC40" s="23"/>
+      <c r="HD40" s="23"/>
+      <c r="HE40" s="12"/>
+      <c r="HH40" s="9">
+        <v>1</v>
+      </c>
+      <c r="HI40" s="23">
+        <v>2</v>
+      </c>
+      <c r="HJ40" s="23">
+        <v>2</v>
+      </c>
+      <c r="HK40" s="23">
+        <v>2</v>
+      </c>
+      <c r="HL40" s="23">
+        <v>2</v>
+      </c>
+      <c r="HM40" s="23">
+        <v>2</v>
+      </c>
+      <c r="HN40" s="23">
+        <v>2</v>
+      </c>
+      <c r="HO40" s="12">
+        <v>2</v>
+      </c>
+      <c r="HP40" s="23"/>
+      <c r="HQ40" s="23"/>
+      <c r="HR40" s="23"/>
+      <c r="HS40" s="23"/>
+      <c r="HT40" s="23"/>
+      <c r="HU40" s="23"/>
+      <c r="HV40" s="23"/>
+      <c r="HW40" s="12"/>
+      <c r="HZ40" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA40" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB40" s="23">
+        <v>8</v>
+      </c>
+      <c r="IC40" s="23">
+        <v>8</v>
+      </c>
+      <c r="ID40" s="9">
+        <v>5</v>
+      </c>
+      <c r="IE40" s="23">
+        <v>5</v>
+      </c>
+      <c r="IF40" s="23">
+        <v>5</v>
+      </c>
+      <c r="IG40" s="12">
+        <v>5</v>
+      </c>
+      <c r="IH40" s="9">
+        <v>1</v>
+      </c>
+      <c r="II40" s="23">
+        <v>5</v>
+      </c>
+      <c r="IJ40" s="23">
+        <v>5</v>
+      </c>
+      <c r="IK40" s="12">
+        <v>5</v>
+      </c>
+      <c r="IL40" s="9">
+        <v>5</v>
+      </c>
+      <c r="IM40" s="23">
+        <v>5</v>
+      </c>
+      <c r="IN40" s="23">
+        <v>5</v>
+      </c>
+      <c r="IO40" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="9">
         <v>32</v>
       </c>
@@ -6306,29 +6690,29 @@
       <c r="BO41" s="23"/>
       <c r="BP41" s="23"/>
       <c r="BQ41" s="12"/>
-      <c r="BT41" s="9">
-        <v>1</v>
-      </c>
-      <c r="BU41" s="23">
-        <v>2</v>
-      </c>
-      <c r="BV41" s="23">
-        <v>2</v>
-      </c>
-      <c r="BW41" s="23">
-        <v>2</v>
+      <c r="BT41" s="16">
+        <v>1</v>
+      </c>
+      <c r="BU41" s="14">
+        <v>5</v>
+      </c>
+      <c r="BV41" s="14">
+        <v>5</v>
+      </c>
+      <c r="BW41" s="15">
+        <v>5</v>
       </c>
       <c r="BX41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA41" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB41" s="23"/>
       <c r="CC41" s="23"/>
@@ -6338,29 +6722,29 @@
       <c r="CG41" s="23"/>
       <c r="CH41" s="23"/>
       <c r="CI41" s="12"/>
-      <c r="CL41" s="16">
-        <v>1</v>
-      </c>
-      <c r="CM41" s="14">
-        <v>5</v>
-      </c>
-      <c r="CN41" s="14">
-        <v>5</v>
-      </c>
-      <c r="CO41" s="15">
-        <v>4</v>
-      </c>
-      <c r="CP41" s="23">
-        <v>2</v>
-      </c>
-      <c r="CQ41" s="23">
-        <v>2</v>
-      </c>
-      <c r="CR41" s="23">
-        <v>2</v>
-      </c>
-      <c r="CS41" s="12">
-        <v>2</v>
+      <c r="CL41" s="9">
+        <v>3</v>
+      </c>
+      <c r="CM41" s="23">
+        <v>3</v>
+      </c>
+      <c r="CN41" s="23">
+        <v>3</v>
+      </c>
+      <c r="CO41" s="23">
+        <v>3</v>
+      </c>
+      <c r="CP41" s="16">
+        <v>5</v>
+      </c>
+      <c r="CQ41" s="14">
+        <v>5</v>
+      </c>
+      <c r="CR41" s="14">
+        <v>5</v>
+      </c>
+      <c r="CS41" s="15">
+        <v>5</v>
       </c>
       <c r="CT41" s="23"/>
       <c r="CU41" s="23"/>
@@ -6371,28 +6755,28 @@
       <c r="CZ41" s="23"/>
       <c r="DA41" s="12"/>
       <c r="DD41" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DE41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF41" s="23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="DG41" s="23">
-        <v>2</v>
-      </c>
-      <c r="DH41" s="16">
-        <v>5</v>
-      </c>
-      <c r="DI41" s="14">
-        <v>5</v>
-      </c>
-      <c r="DJ41" s="14">
-        <v>5</v>
-      </c>
-      <c r="DK41" s="15">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="DH41" s="23">
+        <v>3</v>
+      </c>
+      <c r="DI41" s="23">
+        <v>3</v>
+      </c>
+      <c r="DJ41" s="23">
+        <v>3</v>
+      </c>
+      <c r="DK41" s="12">
+        <v>3</v>
       </c>
       <c r="DL41" s="23"/>
       <c r="DM41" s="23"/>
@@ -6403,28 +6787,28 @@
       <c r="DR41" s="23"/>
       <c r="DS41" s="12"/>
       <c r="DV41" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DW41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DX41" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DY41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DZ41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EA41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EB41" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="EC41" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="ED41" s="23"/>
       <c r="EE41" s="23"/>
@@ -6466,56 +6850,184 @@
       <c r="FA41" s="23"/>
       <c r="FB41" s="23"/>
       <c r="FC41" s="12"/>
-      <c r="FF41" s="9">
-        <v>1</v>
-      </c>
-      <c r="FG41" s="23">
-        <v>2</v>
-      </c>
-      <c r="FH41" s="23">
+      <c r="FF41" s="16">
+        <v>1</v>
+      </c>
+      <c r="FG41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FH41" s="14">
+        <v>5</v>
+      </c>
+      <c r="FI41" s="15">
+        <v>4</v>
+      </c>
+      <c r="FJ41" s="23">
+        <v>2</v>
+      </c>
+      <c r="FK41" s="23">
+        <v>2</v>
+      </c>
+      <c r="FL41" s="23">
+        <v>2</v>
+      </c>
+      <c r="FM41" s="12">
+        <v>2</v>
+      </c>
+      <c r="FN41" s="23"/>
+      <c r="FO41" s="23"/>
+      <c r="FP41" s="23"/>
+      <c r="FQ41" s="23"/>
+      <c r="FR41" s="23"/>
+      <c r="FS41" s="23"/>
+      <c r="FT41" s="23"/>
+      <c r="FU41" s="12"/>
+      <c r="FX41" s="9">
+        <v>1</v>
+      </c>
+      <c r="FY41" s="23">
+        <v>2</v>
+      </c>
+      <c r="FZ41" s="23">
         <v>8</v>
       </c>
-      <c r="FI41" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ41" s="16">
-        <v>5</v>
-      </c>
-      <c r="FK41" s="14">
-        <v>5</v>
-      </c>
-      <c r="FL41" s="14">
-        <v>5</v>
-      </c>
-      <c r="FM41" s="15">
-        <v>5</v>
-      </c>
-      <c r="FN41" s="16">
-        <v>1</v>
-      </c>
-      <c r="FO41" s="14">
-        <v>5</v>
-      </c>
-      <c r="FP41" s="14">
-        <v>5</v>
-      </c>
-      <c r="FQ41" s="15">
-        <v>4</v>
-      </c>
-      <c r="FR41" s="16">
-        <v>5</v>
-      </c>
-      <c r="FS41" s="14">
-        <v>5</v>
-      </c>
-      <c r="FT41" s="14">
-        <v>5</v>
-      </c>
-      <c r="FU41" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="GA41" s="23">
+        <v>2</v>
+      </c>
+      <c r="GB41" s="16">
+        <v>5</v>
+      </c>
+      <c r="GC41" s="14">
+        <v>5</v>
+      </c>
+      <c r="GD41" s="14">
+        <v>5</v>
+      </c>
+      <c r="GE41" s="15">
+        <v>5</v>
+      </c>
+      <c r="GF41" s="23"/>
+      <c r="GG41" s="23"/>
+      <c r="GH41" s="23"/>
+      <c r="GI41" s="23"/>
+      <c r="GJ41" s="23"/>
+      <c r="GK41" s="23"/>
+      <c r="GL41" s="23"/>
+      <c r="GM41" s="12"/>
+      <c r="GP41" s="9">
+        <v>1</v>
+      </c>
+      <c r="GQ41" s="23">
+        <v>2</v>
+      </c>
+      <c r="GR41" s="23">
+        <v>6</v>
+      </c>
+      <c r="GS41" s="23">
+        <v>2</v>
+      </c>
+      <c r="GT41" s="23">
+        <v>2</v>
+      </c>
+      <c r="GU41" s="23">
+        <v>2</v>
+      </c>
+      <c r="GV41" s="23">
+        <v>2</v>
+      </c>
+      <c r="GW41" s="12">
+        <v>2</v>
+      </c>
+      <c r="GX41" s="23"/>
+      <c r="GY41" s="23"/>
+      <c r="GZ41" s="23"/>
+      <c r="HA41" s="23"/>
+      <c r="HB41" s="23"/>
+      <c r="HC41" s="23"/>
+      <c r="HD41" s="23"/>
+      <c r="HE41" s="12"/>
+      <c r="HH41" s="9">
+        <v>1</v>
+      </c>
+      <c r="HI41" s="23">
+        <v>2</v>
+      </c>
+      <c r="HJ41" s="23">
+        <v>2</v>
+      </c>
+      <c r="HK41" s="23">
+        <v>2</v>
+      </c>
+      <c r="HL41" s="23">
+        <v>2</v>
+      </c>
+      <c r="HM41" s="23">
+        <v>2</v>
+      </c>
+      <c r="HN41" s="23">
+        <v>2</v>
+      </c>
+      <c r="HO41" s="12">
+        <v>2</v>
+      </c>
+      <c r="HP41" s="23"/>
+      <c r="HQ41" s="23"/>
+      <c r="HR41" s="23"/>
+      <c r="HS41" s="23"/>
+      <c r="HT41" s="23"/>
+      <c r="HU41" s="23"/>
+      <c r="HV41" s="23"/>
+      <c r="HW41" s="12"/>
+      <c r="HZ41" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA41" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB41" s="23">
+        <v>8</v>
+      </c>
+      <c r="IC41" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID41" s="16">
+        <v>5</v>
+      </c>
+      <c r="IE41" s="14">
+        <v>5</v>
+      </c>
+      <c r="IF41" s="14">
+        <v>5</v>
+      </c>
+      <c r="IG41" s="15">
+        <v>5</v>
+      </c>
+      <c r="IH41" s="16">
+        <v>1</v>
+      </c>
+      <c r="II41" s="14">
+        <v>5</v>
+      </c>
+      <c r="IJ41" s="14">
+        <v>5</v>
+      </c>
+      <c r="IK41" s="15">
+        <v>4</v>
+      </c>
+      <c r="IL41" s="16">
+        <v>5</v>
+      </c>
+      <c r="IM41" s="14">
+        <v>5</v>
+      </c>
+      <c r="IN41" s="14">
+        <v>5</v>
+      </c>
+      <c r="IO41" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="9">
         <v>32</v>
       </c>
@@ -6693,16 +7205,16 @@
       <c r="BP42" s="23"/>
       <c r="BQ42" s="12"/>
       <c r="BT42" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU42" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV42" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW42" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX42" s="23">
         <v>3</v>
@@ -6725,16 +7237,16 @@
       <c r="CH42" s="23"/>
       <c r="CI42" s="12"/>
       <c r="CL42" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM42" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN42" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO42" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP42" s="23">
         <v>3</v>
@@ -6756,17 +7268,17 @@
       <c r="CY42" s="23"/>
       <c r="CZ42" s="23"/>
       <c r="DA42" s="12"/>
-      <c r="DD42" s="9">
-        <v>1</v>
-      </c>
-      <c r="DE42" s="23">
-        <v>2</v>
-      </c>
-      <c r="DF42" s="23">
-        <v>8</v>
-      </c>
-      <c r="DG42" s="23">
-        <v>2</v>
+      <c r="DD42" s="4">
+        <v>3</v>
+      </c>
+      <c r="DE42" s="5">
+        <v>3</v>
+      </c>
+      <c r="DF42" s="5">
+        <v>3</v>
+      </c>
+      <c r="DG42" s="8">
+        <v>3</v>
       </c>
       <c r="DH42" s="23">
         <v>3</v>
@@ -6788,29 +7300,29 @@
       <c r="DQ42" s="23"/>
       <c r="DR42" s="23"/>
       <c r="DS42" s="12"/>
-      <c r="DV42" s="4">
-        <v>3</v>
-      </c>
-      <c r="DW42" s="5">
-        <v>3</v>
-      </c>
-      <c r="DX42" s="5">
-        <v>3</v>
-      </c>
-      <c r="DY42" s="8">
-        <v>3</v>
-      </c>
-      <c r="DZ42" s="23">
-        <v>3</v>
-      </c>
-      <c r="EA42" s="23">
-        <v>3</v>
-      </c>
-      <c r="EB42" s="23">
-        <v>3</v>
-      </c>
-      <c r="EC42" s="12">
-        <v>3</v>
+      <c r="DV42" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW42" s="23">
+        <v>3</v>
+      </c>
+      <c r="DX42" s="23">
+        <v>3</v>
+      </c>
+      <c r="DY42" s="23">
+        <v>3</v>
+      </c>
+      <c r="DZ42" s="4">
+        <v>5</v>
+      </c>
+      <c r="EA42" s="5">
+        <v>5</v>
+      </c>
+      <c r="EB42" s="5">
+        <v>5</v>
+      </c>
+      <c r="EC42" s="8">
+        <v>5</v>
       </c>
       <c r="ED42" s="23"/>
       <c r="EE42" s="23"/>
@@ -6832,17 +7344,17 @@
       <c r="EQ42" s="23">
         <v>2</v>
       </c>
-      <c r="ER42" s="4">
-        <v>5</v>
-      </c>
-      <c r="ES42" s="5">
-        <v>5</v>
-      </c>
-      <c r="ET42" s="5">
-        <v>5</v>
-      </c>
-      <c r="EU42" s="8">
-        <v>5</v>
+      <c r="ER42" s="23">
+        <v>3</v>
+      </c>
+      <c r="ES42" s="23">
+        <v>3</v>
+      </c>
+      <c r="ET42" s="23">
+        <v>3</v>
+      </c>
+      <c r="EU42" s="12">
+        <v>3</v>
       </c>
       <c r="EV42" s="23"/>
       <c r="EW42" s="23"/>
@@ -6856,52 +7368,180 @@
         <v>1</v>
       </c>
       <c r="FG42" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="FH42" s="23">
+        <v>2</v>
+      </c>
+      <c r="FI42" s="23">
+        <v>2</v>
+      </c>
+      <c r="FJ42" s="23">
+        <v>3</v>
+      </c>
+      <c r="FK42" s="23">
+        <v>3</v>
+      </c>
+      <c r="FL42" s="23">
+        <v>3</v>
+      </c>
+      <c r="FM42" s="12">
+        <v>3</v>
+      </c>
+      <c r="FN42" s="23"/>
+      <c r="FO42" s="23"/>
+      <c r="FP42" s="23"/>
+      <c r="FQ42" s="23"/>
+      <c r="FR42" s="23"/>
+      <c r="FS42" s="23"/>
+      <c r="FT42" s="23"/>
+      <c r="FU42" s="12"/>
+      <c r="FX42" s="9">
+        <v>1</v>
+      </c>
+      <c r="FY42" s="23">
+        <v>2</v>
+      </c>
+      <c r="FZ42" s="23">
         <v>8</v>
       </c>
-      <c r="FI42" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ42" s="23">
-        <v>3</v>
-      </c>
-      <c r="FK42" s="23">
-        <v>3</v>
-      </c>
-      <c r="FL42" s="23">
-        <v>3</v>
-      </c>
-      <c r="FM42" s="12">
-        <v>3</v>
-      </c>
-      <c r="FN42" s="4">
-        <v>3</v>
-      </c>
-      <c r="FO42" s="5">
-        <v>3</v>
-      </c>
-      <c r="FP42" s="5">
-        <v>3</v>
-      </c>
-      <c r="FQ42" s="8">
-        <v>3</v>
-      </c>
-      <c r="FR42" s="4">
-        <v>5</v>
-      </c>
-      <c r="FS42" s="5">
-        <v>5</v>
-      </c>
-      <c r="FT42" s="5">
-        <v>5</v>
-      </c>
-      <c r="FU42" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="GA42" s="23">
+        <v>2</v>
+      </c>
+      <c r="GB42" s="23">
+        <v>3</v>
+      </c>
+      <c r="GC42" s="23">
+        <v>3</v>
+      </c>
+      <c r="GD42" s="23">
+        <v>3</v>
+      </c>
+      <c r="GE42" s="12">
+        <v>3</v>
+      </c>
+      <c r="GF42" s="23"/>
+      <c r="GG42" s="23"/>
+      <c r="GH42" s="23"/>
+      <c r="GI42" s="23"/>
+      <c r="GJ42" s="23"/>
+      <c r="GK42" s="23"/>
+      <c r="GL42" s="23"/>
+      <c r="GM42" s="12"/>
+      <c r="GP42" s="4">
+        <v>3</v>
+      </c>
+      <c r="GQ42" s="5">
+        <v>3</v>
+      </c>
+      <c r="GR42" s="5">
+        <v>3</v>
+      </c>
+      <c r="GS42" s="8">
+        <v>3</v>
+      </c>
+      <c r="GT42" s="23">
+        <v>3</v>
+      </c>
+      <c r="GU42" s="23">
+        <v>3</v>
+      </c>
+      <c r="GV42" s="23">
+        <v>3</v>
+      </c>
+      <c r="GW42" s="12">
+        <v>3</v>
+      </c>
+      <c r="GX42" s="23"/>
+      <c r="GY42" s="23"/>
+      <c r="GZ42" s="23"/>
+      <c r="HA42" s="23"/>
+      <c r="HB42" s="23"/>
+      <c r="HC42" s="23"/>
+      <c r="HD42" s="23"/>
+      <c r="HE42" s="12"/>
+      <c r="HH42" s="9">
+        <v>1</v>
+      </c>
+      <c r="HI42" s="23">
+        <v>2</v>
+      </c>
+      <c r="HJ42" s="23">
+        <v>2</v>
+      </c>
+      <c r="HK42" s="23">
+        <v>2</v>
+      </c>
+      <c r="HL42" s="4">
+        <v>5</v>
+      </c>
+      <c r="HM42" s="5">
+        <v>5</v>
+      </c>
+      <c r="HN42" s="5">
+        <v>5</v>
+      </c>
+      <c r="HO42" s="8">
+        <v>5</v>
+      </c>
+      <c r="HP42" s="23"/>
+      <c r="HQ42" s="23"/>
+      <c r="HR42" s="23"/>
+      <c r="HS42" s="23"/>
+      <c r="HT42" s="23"/>
+      <c r="HU42" s="23"/>
+      <c r="HV42" s="23"/>
+      <c r="HW42" s="12"/>
+      <c r="HZ42" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA42" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB42" s="23">
+        <v>8</v>
+      </c>
+      <c r="IC42" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID42" s="23">
+        <v>3</v>
+      </c>
+      <c r="IE42" s="23">
+        <v>3</v>
+      </c>
+      <c r="IF42" s="23">
+        <v>3</v>
+      </c>
+      <c r="IG42" s="12">
+        <v>3</v>
+      </c>
+      <c r="IH42" s="4">
+        <v>3</v>
+      </c>
+      <c r="II42" s="5">
+        <v>3</v>
+      </c>
+      <c r="IJ42" s="5">
+        <v>3</v>
+      </c>
+      <c r="IK42" s="8">
+        <v>3</v>
+      </c>
+      <c r="IL42" s="4">
+        <v>5</v>
+      </c>
+      <c r="IM42" s="5">
+        <v>5</v>
+      </c>
+      <c r="IN42" s="5">
+        <v>5</v>
+      </c>
+      <c r="IO42" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="9">
         <v>32</v>
       </c>
@@ -7079,28 +7719,28 @@
       <c r="BP43" s="23"/>
       <c r="BQ43" s="12"/>
       <c r="BT43" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU43" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV43" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW43" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX43" s="23">
         <v>3</v>
       </c>
       <c r="BY43" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BZ43" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CA43" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CB43" s="23"/>
       <c r="CC43" s="23"/>
@@ -7111,28 +7751,28 @@
       <c r="CH43" s="23"/>
       <c r="CI43" s="12"/>
       <c r="CL43" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM43" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN43" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO43" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP43" s="23">
         <v>3</v>
       </c>
       <c r="CQ43" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CR43" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CS43" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CT43" s="23"/>
       <c r="CU43" s="23"/>
@@ -7143,28 +7783,28 @@
       <c r="CZ43" s="23"/>
       <c r="DA43" s="12"/>
       <c r="DD43" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DE43" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF43" s="23">
-        <v>8</v>
-      </c>
-      <c r="DG43" s="23">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="DG43" s="12">
+        <v>3</v>
       </c>
       <c r="DH43" s="23">
         <v>3</v>
       </c>
       <c r="DI43" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="DJ43" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="DK43" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="DL43" s="23"/>
       <c r="DM43" s="23"/>
@@ -7183,11 +7823,11 @@
       <c r="DX43" s="23">
         <v>3</v>
       </c>
-      <c r="DY43" s="12">
-        <v>3</v>
-      </c>
-      <c r="DZ43" s="23">
-        <v>3</v>
+      <c r="DY43" s="23">
+        <v>3</v>
+      </c>
+      <c r="DZ43" s="9">
+        <v>5</v>
       </c>
       <c r="EA43" s="23">
         <v>9</v>
@@ -7218,8 +7858,8 @@
       <c r="EQ43" s="23">
         <v>2</v>
       </c>
-      <c r="ER43" s="9">
-        <v>5</v>
+      <c r="ER43" s="23">
+        <v>3</v>
       </c>
       <c r="ES43" s="23">
         <v>9</v>
@@ -7242,10 +7882,10 @@
         <v>1</v>
       </c>
       <c r="FG43" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="FH43" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="FI43" s="23">
         <v>2</v>
@@ -7262,32 +7902,160 @@
       <c r="FM43" s="12">
         <v>9</v>
       </c>
-      <c r="FN43" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO43" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP43" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ43" s="12">
-        <v>3</v>
-      </c>
-      <c r="FR43" s="9">
-        <v>5</v>
-      </c>
-      <c r="FS43" s="23">
+      <c r="FN43" s="23"/>
+      <c r="FO43" s="23"/>
+      <c r="FP43" s="23"/>
+      <c r="FQ43" s="23"/>
+      <c r="FR43" s="23"/>
+      <c r="FS43" s="23"/>
+      <c r="FT43" s="23"/>
+      <c r="FU43" s="12"/>
+      <c r="FX43" s="9">
+        <v>1</v>
+      </c>
+      <c r="FY43" s="23">
+        <v>2</v>
+      </c>
+      <c r="FZ43" s="23">
+        <v>8</v>
+      </c>
+      <c r="GA43" s="23">
+        <v>2</v>
+      </c>
+      <c r="GB43" s="23">
+        <v>3</v>
+      </c>
+      <c r="GC43" s="23">
         <v>9</v>
       </c>
-      <c r="FT43" s="23">
+      <c r="GD43" s="23">
         <v>9</v>
       </c>
-      <c r="FU43" s="12">
+      <c r="GE43" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="GF43" s="23"/>
+      <c r="GG43" s="23"/>
+      <c r="GH43" s="23"/>
+      <c r="GI43" s="23"/>
+      <c r="GJ43" s="23"/>
+      <c r="GK43" s="23"/>
+      <c r="GL43" s="23"/>
+      <c r="GM43" s="12"/>
+      <c r="GP43" s="9">
+        <v>3</v>
+      </c>
+      <c r="GQ43" s="23">
+        <v>3</v>
+      </c>
+      <c r="GR43" s="23">
+        <v>3</v>
+      </c>
+      <c r="GS43" s="12">
+        <v>3</v>
+      </c>
+      <c r="GT43" s="23">
+        <v>3</v>
+      </c>
+      <c r="GU43" s="23">
+        <v>9</v>
+      </c>
+      <c r="GV43" s="23">
+        <v>9</v>
+      </c>
+      <c r="GW43" s="12">
+        <v>9</v>
+      </c>
+      <c r="GX43" s="23"/>
+      <c r="GY43" s="23"/>
+      <c r="GZ43" s="23"/>
+      <c r="HA43" s="23"/>
+      <c r="HB43" s="23"/>
+      <c r="HC43" s="23"/>
+      <c r="HD43" s="23"/>
+      <c r="HE43" s="12"/>
+      <c r="HH43" s="9">
+        <v>1</v>
+      </c>
+      <c r="HI43" s="23">
+        <v>2</v>
+      </c>
+      <c r="HJ43" s="23">
+        <v>2</v>
+      </c>
+      <c r="HK43" s="23">
+        <v>2</v>
+      </c>
+      <c r="HL43" s="9">
+        <v>5</v>
+      </c>
+      <c r="HM43" s="23">
+        <v>9</v>
+      </c>
+      <c r="HN43" s="23">
+        <v>9</v>
+      </c>
+      <c r="HO43" s="12">
+        <v>9</v>
+      </c>
+      <c r="HP43" s="23"/>
+      <c r="HQ43" s="23"/>
+      <c r="HR43" s="23"/>
+      <c r="HS43" s="23"/>
+      <c r="HT43" s="23"/>
+      <c r="HU43" s="23"/>
+      <c r="HV43" s="23"/>
+      <c r="HW43" s="12"/>
+      <c r="HZ43" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA43" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB43" s="23">
+        <v>8</v>
+      </c>
+      <c r="IC43" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID43" s="23">
+        <v>3</v>
+      </c>
+      <c r="IE43" s="23">
+        <v>9</v>
+      </c>
+      <c r="IF43" s="23">
+        <v>9</v>
+      </c>
+      <c r="IG43" s="12">
+        <v>9</v>
+      </c>
+      <c r="IH43" s="9">
+        <v>3</v>
+      </c>
+      <c r="II43" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ43" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK43" s="12">
+        <v>3</v>
+      </c>
+      <c r="IL43" s="9">
+        <v>5</v>
+      </c>
+      <c r="IM43" s="23">
+        <v>9</v>
+      </c>
+      <c r="IN43" s="23">
+        <v>9</v>
+      </c>
+      <c r="IO43" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="9">
         <v>32</v>
       </c>
@@ -7465,28 +8233,28 @@
       <c r="BP44" s="23"/>
       <c r="BQ44" s="12"/>
       <c r="BT44" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU44" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV44" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW44" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX44" s="23">
         <v>3</v>
       </c>
       <c r="BY44" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BZ44" s="23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CA44" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CB44" s="23"/>
       <c r="CC44" s="23"/>
@@ -7497,28 +8265,28 @@
       <c r="CH44" s="23"/>
       <c r="CI44" s="12"/>
       <c r="CL44" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM44" s="23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN44" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO44" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP44" s="23">
         <v>3</v>
       </c>
       <c r="CQ44" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CR44" s="23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CS44" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CT44" s="23"/>
       <c r="CU44" s="23"/>
@@ -7529,28 +8297,28 @@
       <c r="CZ44" s="23"/>
       <c r="DA44" s="12"/>
       <c r="DD44" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DE44" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF44" s="23">
-        <v>8</v>
-      </c>
-      <c r="DG44" s="23">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="DG44" s="12">
+        <v>3</v>
       </c>
       <c r="DH44" s="23">
         <v>3</v>
       </c>
       <c r="DI44" s="23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="DJ44" s="23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="DK44" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="DL44" s="23"/>
       <c r="DM44" s="23"/>
@@ -7569,20 +8337,20 @@
       <c r="DX44" s="23">
         <v>3</v>
       </c>
-      <c r="DY44" s="12">
-        <v>3</v>
-      </c>
-      <c r="DZ44" s="23">
-        <v>3</v>
+      <c r="DY44" s="23">
+        <v>3</v>
+      </c>
+      <c r="DZ44" s="9">
+        <v>5</v>
       </c>
       <c r="EA44" s="23">
         <v>9</v>
       </c>
       <c r="EB44" s="23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="EC44" s="12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="ED44" s="23"/>
       <c r="EE44" s="23"/>
@@ -7604,8 +8372,8 @@
       <c r="EQ44" s="23">
         <v>2</v>
       </c>
-      <c r="ER44" s="9">
-        <v>5</v>
+      <c r="ER44" s="23">
+        <v>3</v>
       </c>
       <c r="ES44" s="23">
         <v>9</v>
@@ -7628,10 +8396,10 @@
         <v>1</v>
       </c>
       <c r="FG44" s="23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="FH44" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="FI44" s="23">
         <v>2</v>
@@ -7648,32 +8416,160 @@
       <c r="FM44" s="12">
         <v>12</v>
       </c>
-      <c r="FN44" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO44" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP44" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ44" s="12">
-        <v>3</v>
-      </c>
-      <c r="FR44" s="9">
-        <v>5</v>
-      </c>
-      <c r="FS44" s="23">
+      <c r="FN44" s="23"/>
+      <c r="FO44" s="23"/>
+      <c r="FP44" s="23"/>
+      <c r="FQ44" s="23"/>
+      <c r="FR44" s="23"/>
+      <c r="FS44" s="23"/>
+      <c r="FT44" s="23"/>
+      <c r="FU44" s="12"/>
+      <c r="FX44" s="9">
+        <v>1</v>
+      </c>
+      <c r="FY44" s="23">
+        <v>2</v>
+      </c>
+      <c r="FZ44" s="23">
+        <v>8</v>
+      </c>
+      <c r="GA44" s="23">
+        <v>2</v>
+      </c>
+      <c r="GB44" s="23">
+        <v>3</v>
+      </c>
+      <c r="GC44" s="23">
         <v>9</v>
       </c>
-      <c r="FT44" s="23">
+      <c r="GD44" s="23">
         <v>12</v>
       </c>
-      <c r="FU44" s="12">
+      <c r="GE44" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="GF44" s="23"/>
+      <c r="GG44" s="23"/>
+      <c r="GH44" s="23"/>
+      <c r="GI44" s="23"/>
+      <c r="GJ44" s="23"/>
+      <c r="GK44" s="23"/>
+      <c r="GL44" s="23"/>
+      <c r="GM44" s="12"/>
+      <c r="GP44" s="9">
+        <v>3</v>
+      </c>
+      <c r="GQ44" s="23">
+        <v>3</v>
+      </c>
+      <c r="GR44" s="23">
+        <v>3</v>
+      </c>
+      <c r="GS44" s="12">
+        <v>3</v>
+      </c>
+      <c r="GT44" s="23">
+        <v>3</v>
+      </c>
+      <c r="GU44" s="23">
+        <v>9</v>
+      </c>
+      <c r="GV44" s="23">
+        <v>12</v>
+      </c>
+      <c r="GW44" s="12">
+        <v>12</v>
+      </c>
+      <c r="GX44" s="23"/>
+      <c r="GY44" s="23"/>
+      <c r="GZ44" s="23"/>
+      <c r="HA44" s="23"/>
+      <c r="HB44" s="23"/>
+      <c r="HC44" s="23"/>
+      <c r="HD44" s="23"/>
+      <c r="HE44" s="12"/>
+      <c r="HH44" s="9">
+        <v>1</v>
+      </c>
+      <c r="HI44" s="23">
+        <v>2</v>
+      </c>
+      <c r="HJ44" s="23">
+        <v>2</v>
+      </c>
+      <c r="HK44" s="23">
+        <v>2</v>
+      </c>
+      <c r="HL44" s="9">
+        <v>5</v>
+      </c>
+      <c r="HM44" s="23">
+        <v>9</v>
+      </c>
+      <c r="HN44" s="23">
+        <v>12</v>
+      </c>
+      <c r="HO44" s="12">
+        <v>12</v>
+      </c>
+      <c r="HP44" s="23"/>
+      <c r="HQ44" s="23"/>
+      <c r="HR44" s="23"/>
+      <c r="HS44" s="23"/>
+      <c r="HT44" s="23"/>
+      <c r="HU44" s="23"/>
+      <c r="HV44" s="23"/>
+      <c r="HW44" s="12"/>
+      <c r="HZ44" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA44" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB44" s="23">
+        <v>8</v>
+      </c>
+      <c r="IC44" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID44" s="23">
+        <v>3</v>
+      </c>
+      <c r="IE44" s="23">
+        <v>9</v>
+      </c>
+      <c r="IF44" s="23">
+        <v>12</v>
+      </c>
+      <c r="IG44" s="12">
+        <v>12</v>
+      </c>
+      <c r="IH44" s="9">
+        <v>3</v>
+      </c>
+      <c r="II44" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ44" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK44" s="12">
+        <v>3</v>
+      </c>
+      <c r="IL44" s="9">
+        <v>5</v>
+      </c>
+      <c r="IM44" s="23">
+        <v>9</v>
+      </c>
+      <c r="IN44" s="23">
+        <v>12</v>
+      </c>
+      <c r="IO44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="24">
         <v>29</v>
       </c>
@@ -7851,28 +8747,28 @@
       <c r="BP45" s="23"/>
       <c r="BQ45" s="12"/>
       <c r="BT45" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BU45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX45" s="14">
         <v>3</v>
       </c>
       <c r="BY45" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BZ45" s="14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CA45" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CB45" s="23"/>
       <c r="CC45" s="23"/>
@@ -7883,28 +8779,28 @@
       <c r="CH45" s="23"/>
       <c r="CI45" s="12"/>
       <c r="CL45" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM45" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CP45" s="14">
         <v>3</v>
       </c>
       <c r="CQ45" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CR45" s="14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="CS45" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT45" s="23"/>
       <c r="CU45" s="23"/>
@@ -7915,28 +8811,28 @@
       <c r="CZ45" s="23"/>
       <c r="DA45" s="12"/>
       <c r="DD45" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DE45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF45" s="14">
-        <v>8</v>
-      </c>
-      <c r="DG45" s="14">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="DG45" s="15">
+        <v>3</v>
       </c>
       <c r="DH45" s="14">
         <v>3</v>
       </c>
       <c r="DI45" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="DJ45" s="14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="DK45" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DL45" s="23"/>
       <c r="DM45" s="23"/>
@@ -7955,20 +8851,20 @@
       <c r="DX45" s="14">
         <v>3</v>
       </c>
-      <c r="DY45" s="15">
-        <v>3</v>
-      </c>
-      <c r="DZ45" s="14">
-        <v>3</v>
+      <c r="DY45" s="14">
+        <v>3</v>
+      </c>
+      <c r="DZ45" s="16">
+        <v>5</v>
       </c>
       <c r="EA45" s="14">
         <v>9</v>
       </c>
       <c r="EB45" s="14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="EC45" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="ED45" s="23"/>
       <c r="EE45" s="23"/>
@@ -7990,8 +8886,8 @@
       <c r="EQ45" s="14">
         <v>2</v>
       </c>
-      <c r="ER45" s="16">
-        <v>5</v>
+      <c r="ER45" s="14">
+        <v>3</v>
       </c>
       <c r="ES45" s="14">
         <v>9</v>
@@ -8014,10 +8910,10 @@
         <v>1</v>
       </c>
       <c r="FG45" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="FH45" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="FI45" s="14">
         <v>2</v>
@@ -8034,32 +8930,160 @@
       <c r="FM45" s="15">
         <v>1</v>
       </c>
-      <c r="FN45" s="16">
-        <v>3</v>
-      </c>
-      <c r="FO45" s="14">
-        <v>3</v>
-      </c>
-      <c r="FP45" s="14">
-        <v>3</v>
-      </c>
-      <c r="FQ45" s="15">
-        <v>3</v>
-      </c>
-      <c r="FR45" s="16">
-        <v>5</v>
-      </c>
-      <c r="FS45" s="14">
+      <c r="FN45" s="23"/>
+      <c r="FO45" s="23"/>
+      <c r="FP45" s="23"/>
+      <c r="FQ45" s="23"/>
+      <c r="FR45" s="23"/>
+      <c r="FS45" s="23"/>
+      <c r="FT45" s="23"/>
+      <c r="FU45" s="12"/>
+      <c r="FX45" s="16">
+        <v>1</v>
+      </c>
+      <c r="FY45" s="14">
+        <v>2</v>
+      </c>
+      <c r="FZ45" s="14">
+        <v>8</v>
+      </c>
+      <c r="GA45" s="14">
+        <v>2</v>
+      </c>
+      <c r="GB45" s="14">
+        <v>3</v>
+      </c>
+      <c r="GC45" s="14">
         <v>9</v>
       </c>
-      <c r="FT45" s="14">
+      <c r="GD45" s="14">
         <v>12</v>
       </c>
-      <c r="FU45" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="GE45" s="15">
+        <v>1</v>
+      </c>
+      <c r="GF45" s="23"/>
+      <c r="GG45" s="23"/>
+      <c r="GH45" s="23"/>
+      <c r="GI45" s="23"/>
+      <c r="GJ45" s="23"/>
+      <c r="GK45" s="23"/>
+      <c r="GL45" s="23"/>
+      <c r="GM45" s="12"/>
+      <c r="GP45" s="16">
+        <v>3</v>
+      </c>
+      <c r="GQ45" s="14">
+        <v>3</v>
+      </c>
+      <c r="GR45" s="14">
+        <v>3</v>
+      </c>
+      <c r="GS45" s="15">
+        <v>3</v>
+      </c>
+      <c r="GT45" s="14">
+        <v>3</v>
+      </c>
+      <c r="GU45" s="14">
+        <v>9</v>
+      </c>
+      <c r="GV45" s="14">
+        <v>12</v>
+      </c>
+      <c r="GW45" s="15">
+        <v>1</v>
+      </c>
+      <c r="GX45" s="23"/>
+      <c r="GY45" s="23"/>
+      <c r="GZ45" s="23"/>
+      <c r="HA45" s="23"/>
+      <c r="HB45" s="23"/>
+      <c r="HC45" s="23"/>
+      <c r="HD45" s="23"/>
+      <c r="HE45" s="12"/>
+      <c r="HH45" s="16">
+        <v>1</v>
+      </c>
+      <c r="HI45" s="14">
+        <v>2</v>
+      </c>
+      <c r="HJ45" s="14">
+        <v>2</v>
+      </c>
+      <c r="HK45" s="14">
+        <v>2</v>
+      </c>
+      <c r="HL45" s="16">
+        <v>5</v>
+      </c>
+      <c r="HM45" s="14">
+        <v>9</v>
+      </c>
+      <c r="HN45" s="14">
+        <v>12</v>
+      </c>
+      <c r="HO45" s="15">
+        <v>1</v>
+      </c>
+      <c r="HP45" s="23"/>
+      <c r="HQ45" s="23"/>
+      <c r="HR45" s="23"/>
+      <c r="HS45" s="23"/>
+      <c r="HT45" s="23"/>
+      <c r="HU45" s="23"/>
+      <c r="HV45" s="23"/>
+      <c r="HW45" s="12"/>
+      <c r="HZ45" s="16">
+        <v>1</v>
+      </c>
+      <c r="IA45" s="14">
+        <v>2</v>
+      </c>
+      <c r="IB45" s="14">
+        <v>8</v>
+      </c>
+      <c r="IC45" s="14">
+        <v>2</v>
+      </c>
+      <c r="ID45" s="14">
+        <v>3</v>
+      </c>
+      <c r="IE45" s="14">
+        <v>9</v>
+      </c>
+      <c r="IF45" s="14">
+        <v>12</v>
+      </c>
+      <c r="IG45" s="15">
+        <v>1</v>
+      </c>
+      <c r="IH45" s="16">
+        <v>3</v>
+      </c>
+      <c r="II45" s="14">
+        <v>3</v>
+      </c>
+      <c r="IJ45" s="14">
+        <v>3</v>
+      </c>
+      <c r="IK45" s="15">
+        <v>3</v>
+      </c>
+      <c r="IL45" s="16">
+        <v>5</v>
+      </c>
+      <c r="IM45" s="14">
+        <v>9</v>
+      </c>
+      <c r="IN45" s="14">
+        <v>12</v>
+      </c>
+      <c r="IO45" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="26">
         <v>29</v>
       </c>
@@ -8300,56 +9324,120 @@
       <c r="FA46" s="23"/>
       <c r="FB46" s="23"/>
       <c r="FC46" s="12"/>
-      <c r="FF46" s="4">
-        <v>1</v>
-      </c>
-      <c r="FG46" s="5">
-        <v>1</v>
-      </c>
-      <c r="FH46" s="5">
-        <v>1</v>
-      </c>
-      <c r="FI46" s="5">
-        <v>1</v>
-      </c>
-      <c r="FJ46" s="5">
-        <v>1</v>
-      </c>
-      <c r="FK46" s="5">
-        <v>1</v>
-      </c>
-      <c r="FL46" s="5">
-        <v>1</v>
-      </c>
-      <c r="FM46" s="8">
-        <v>1</v>
-      </c>
-      <c r="FN46" s="4">
-        <v>3</v>
-      </c>
-      <c r="FO46" s="5">
-        <v>3</v>
-      </c>
-      <c r="FP46" s="5">
-        <v>3</v>
-      </c>
-      <c r="FQ46" s="5">
-        <v>3</v>
-      </c>
-      <c r="FR46" s="5">
-        <v>3</v>
-      </c>
-      <c r="FS46" s="5">
-        <v>3</v>
-      </c>
-      <c r="FT46" s="5">
-        <v>3</v>
-      </c>
-      <c r="FU46" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF46" s="9"/>
+      <c r="FG46" s="23"/>
+      <c r="FH46" s="23"/>
+      <c r="FI46" s="23"/>
+      <c r="FJ46" s="23"/>
+      <c r="FK46" s="23"/>
+      <c r="FL46" s="23"/>
+      <c r="FM46" s="23"/>
+      <c r="FN46" s="23"/>
+      <c r="FO46" s="23"/>
+      <c r="FP46" s="23"/>
+      <c r="FQ46" s="23"/>
+      <c r="FR46" s="23"/>
+      <c r="FS46" s="23"/>
+      <c r="FT46" s="23"/>
+      <c r="FU46" s="12"/>
+      <c r="FX46" s="9"/>
+      <c r="FY46" s="23"/>
+      <c r="FZ46" s="23"/>
+      <c r="GA46" s="23"/>
+      <c r="GB46" s="23"/>
+      <c r="GC46" s="23"/>
+      <c r="GD46" s="23"/>
+      <c r="GE46" s="23"/>
+      <c r="GF46" s="23"/>
+      <c r="GG46" s="23"/>
+      <c r="GH46" s="23"/>
+      <c r="GI46" s="23"/>
+      <c r="GJ46" s="23"/>
+      <c r="GK46" s="23"/>
+      <c r="GL46" s="23"/>
+      <c r="GM46" s="12"/>
+      <c r="GP46" s="9"/>
+      <c r="GQ46" s="23"/>
+      <c r="GR46" s="23"/>
+      <c r="GS46" s="23"/>
+      <c r="GT46" s="23"/>
+      <c r="GU46" s="23"/>
+      <c r="GV46" s="23"/>
+      <c r="GW46" s="23"/>
+      <c r="GX46" s="23"/>
+      <c r="GY46" s="23"/>
+      <c r="GZ46" s="23"/>
+      <c r="HA46" s="23"/>
+      <c r="HB46" s="23"/>
+      <c r="HC46" s="23"/>
+      <c r="HD46" s="23"/>
+      <c r="HE46" s="12"/>
+      <c r="HH46" s="9"/>
+      <c r="HI46" s="23"/>
+      <c r="HJ46" s="23"/>
+      <c r="HK46" s="23"/>
+      <c r="HL46" s="23"/>
+      <c r="HM46" s="23"/>
+      <c r="HN46" s="23"/>
+      <c r="HO46" s="23"/>
+      <c r="HP46" s="23"/>
+      <c r="HQ46" s="23"/>
+      <c r="HR46" s="23"/>
+      <c r="HS46" s="23"/>
+      <c r="HT46" s="23"/>
+      <c r="HU46" s="23"/>
+      <c r="HV46" s="23"/>
+      <c r="HW46" s="12"/>
+      <c r="HZ46" s="4">
+        <v>1</v>
+      </c>
+      <c r="IA46" s="5">
+        <v>1</v>
+      </c>
+      <c r="IB46" s="5">
+        <v>1</v>
+      </c>
+      <c r="IC46" s="5">
+        <v>1</v>
+      </c>
+      <c r="ID46" s="5">
+        <v>1</v>
+      </c>
+      <c r="IE46" s="5">
+        <v>1</v>
+      </c>
+      <c r="IF46" s="5">
+        <v>1</v>
+      </c>
+      <c r="IG46" s="8">
+        <v>1</v>
+      </c>
+      <c r="IH46" s="4">
+        <v>3</v>
+      </c>
+      <c r="II46" s="5">
+        <v>3</v>
+      </c>
+      <c r="IJ46" s="5">
+        <v>3</v>
+      </c>
+      <c r="IK46" s="5">
+        <v>3</v>
+      </c>
+      <c r="IL46" s="5">
+        <v>3</v>
+      </c>
+      <c r="IM46" s="5">
+        <v>3</v>
+      </c>
+      <c r="IN46" s="5">
+        <v>3</v>
+      </c>
+      <c r="IO46" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="26">
         <v>29</v>
       </c>
@@ -8590,56 +9678,120 @@
       <c r="FA47" s="23"/>
       <c r="FB47" s="23"/>
       <c r="FC47" s="12"/>
-      <c r="FF47" s="9">
-        <v>1</v>
-      </c>
-      <c r="FG47" s="23">
-        <v>2</v>
-      </c>
-      <c r="FH47" s="23">
-        <v>2</v>
-      </c>
-      <c r="FI47" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ47" s="23">
-        <v>2</v>
-      </c>
-      <c r="FK47" s="23">
-        <v>2</v>
-      </c>
-      <c r="FL47" s="23">
-        <v>2</v>
-      </c>
-      <c r="FM47" s="12">
-        <v>2</v>
-      </c>
-      <c r="FN47" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO47" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP47" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ47" s="23">
-        <v>3</v>
-      </c>
-      <c r="FR47" s="23">
-        <v>3</v>
-      </c>
-      <c r="FS47" s="23">
-        <v>3</v>
-      </c>
-      <c r="FT47" s="23">
-        <v>3</v>
-      </c>
-      <c r="FU47" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="FF47" s="9"/>
+      <c r="FG47" s="23"/>
+      <c r="FH47" s="23"/>
+      <c r="FI47" s="23"/>
+      <c r="FJ47" s="23"/>
+      <c r="FK47" s="23"/>
+      <c r="FL47" s="23"/>
+      <c r="FM47" s="23"/>
+      <c r="FN47" s="23"/>
+      <c r="FO47" s="23"/>
+      <c r="FP47" s="23"/>
+      <c r="FQ47" s="23"/>
+      <c r="FR47" s="23"/>
+      <c r="FS47" s="23"/>
+      <c r="FT47" s="23"/>
+      <c r="FU47" s="12"/>
+      <c r="FX47" s="9"/>
+      <c r="FY47" s="23"/>
+      <c r="FZ47" s="23"/>
+      <c r="GA47" s="23"/>
+      <c r="GB47" s="23"/>
+      <c r="GC47" s="23"/>
+      <c r="GD47" s="23"/>
+      <c r="GE47" s="23"/>
+      <c r="GF47" s="23"/>
+      <c r="GG47" s="23"/>
+      <c r="GH47" s="23"/>
+      <c r="GI47" s="23"/>
+      <c r="GJ47" s="23"/>
+      <c r="GK47" s="23"/>
+      <c r="GL47" s="23"/>
+      <c r="GM47" s="12"/>
+      <c r="GP47" s="9"/>
+      <c r="GQ47" s="23"/>
+      <c r="GR47" s="23"/>
+      <c r="GS47" s="23"/>
+      <c r="GT47" s="23"/>
+      <c r="GU47" s="23"/>
+      <c r="GV47" s="23"/>
+      <c r="GW47" s="23"/>
+      <c r="GX47" s="23"/>
+      <c r="GY47" s="23"/>
+      <c r="GZ47" s="23"/>
+      <c r="HA47" s="23"/>
+      <c r="HB47" s="23"/>
+      <c r="HC47" s="23"/>
+      <c r="HD47" s="23"/>
+      <c r="HE47" s="12"/>
+      <c r="HH47" s="9"/>
+      <c r="HI47" s="23"/>
+      <c r="HJ47" s="23"/>
+      <c r="HK47" s="23"/>
+      <c r="HL47" s="23"/>
+      <c r="HM47" s="23"/>
+      <c r="HN47" s="23"/>
+      <c r="HO47" s="23"/>
+      <c r="HP47" s="23"/>
+      <c r="HQ47" s="23"/>
+      <c r="HR47" s="23"/>
+      <c r="HS47" s="23"/>
+      <c r="HT47" s="23"/>
+      <c r="HU47" s="23"/>
+      <c r="HV47" s="23"/>
+      <c r="HW47" s="12"/>
+      <c r="HZ47" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA47" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB47" s="23">
+        <v>2</v>
+      </c>
+      <c r="IC47" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID47" s="23">
+        <v>2</v>
+      </c>
+      <c r="IE47" s="23">
+        <v>2</v>
+      </c>
+      <c r="IF47" s="23">
+        <v>2</v>
+      </c>
+      <c r="IG47" s="12">
+        <v>2</v>
+      </c>
+      <c r="IH47" s="9">
+        <v>3</v>
+      </c>
+      <c r="II47" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ47" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK47" s="23">
+        <v>3</v>
+      </c>
+      <c r="IL47" s="23">
+        <v>3</v>
+      </c>
+      <c r="IM47" s="23">
+        <v>3</v>
+      </c>
+      <c r="IN47" s="23">
+        <v>3</v>
+      </c>
+      <c r="IO47" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="26">
         <v>29</v>
       </c>
@@ -8880,56 +10032,120 @@
       <c r="FA48" s="23"/>
       <c r="FB48" s="23"/>
       <c r="FC48" s="12"/>
-      <c r="FF48" s="9">
-        <v>1</v>
-      </c>
-      <c r="FG48" s="23">
-        <v>2</v>
-      </c>
-      <c r="FH48" s="23">
-        <v>2</v>
-      </c>
-      <c r="FI48" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ48" s="23">
-        <v>2</v>
-      </c>
-      <c r="FK48" s="23">
-        <v>2</v>
-      </c>
-      <c r="FL48" s="23">
-        <v>2</v>
-      </c>
-      <c r="FM48" s="12">
-        <v>2</v>
-      </c>
-      <c r="FN48" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO48" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP48" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ48" s="23">
-        <v>3</v>
-      </c>
-      <c r="FR48" s="23">
-        <v>3</v>
-      </c>
-      <c r="FS48" s="23">
-        <v>3</v>
-      </c>
-      <c r="FT48" s="23">
-        <v>3</v>
-      </c>
-      <c r="FU48" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF48" s="9"/>
+      <c r="FG48" s="23"/>
+      <c r="FH48" s="23"/>
+      <c r="FI48" s="23"/>
+      <c r="FJ48" s="23"/>
+      <c r="FK48" s="23"/>
+      <c r="FL48" s="23"/>
+      <c r="FM48" s="23"/>
+      <c r="FN48" s="23"/>
+      <c r="FO48" s="23"/>
+      <c r="FP48" s="23"/>
+      <c r="FQ48" s="23"/>
+      <c r="FR48" s="23"/>
+      <c r="FS48" s="23"/>
+      <c r="FT48" s="23"/>
+      <c r="FU48" s="12"/>
+      <c r="FX48" s="9"/>
+      <c r="FY48" s="23"/>
+      <c r="FZ48" s="23"/>
+      <c r="GA48" s="23"/>
+      <c r="GB48" s="23"/>
+      <c r="GC48" s="23"/>
+      <c r="GD48" s="23"/>
+      <c r="GE48" s="23"/>
+      <c r="GF48" s="23"/>
+      <c r="GG48" s="23"/>
+      <c r="GH48" s="23"/>
+      <c r="GI48" s="23"/>
+      <c r="GJ48" s="23"/>
+      <c r="GK48" s="23"/>
+      <c r="GL48" s="23"/>
+      <c r="GM48" s="12"/>
+      <c r="GP48" s="9"/>
+      <c r="GQ48" s="23"/>
+      <c r="GR48" s="23"/>
+      <c r="GS48" s="23"/>
+      <c r="GT48" s="23"/>
+      <c r="GU48" s="23"/>
+      <c r="GV48" s="23"/>
+      <c r="GW48" s="23"/>
+      <c r="GX48" s="23"/>
+      <c r="GY48" s="23"/>
+      <c r="GZ48" s="23"/>
+      <c r="HA48" s="23"/>
+      <c r="HB48" s="23"/>
+      <c r="HC48" s="23"/>
+      <c r="HD48" s="23"/>
+      <c r="HE48" s="12"/>
+      <c r="HH48" s="9"/>
+      <c r="HI48" s="23"/>
+      <c r="HJ48" s="23"/>
+      <c r="HK48" s="23"/>
+      <c r="HL48" s="23"/>
+      <c r="HM48" s="23"/>
+      <c r="HN48" s="23"/>
+      <c r="HO48" s="23"/>
+      <c r="HP48" s="23"/>
+      <c r="HQ48" s="23"/>
+      <c r="HR48" s="23"/>
+      <c r="HS48" s="23"/>
+      <c r="HT48" s="23"/>
+      <c r="HU48" s="23"/>
+      <c r="HV48" s="23"/>
+      <c r="HW48" s="12"/>
+      <c r="HZ48" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA48" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB48" s="23">
+        <v>2</v>
+      </c>
+      <c r="IC48" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID48" s="23">
+        <v>2</v>
+      </c>
+      <c r="IE48" s="23">
+        <v>2</v>
+      </c>
+      <c r="IF48" s="23">
+        <v>2</v>
+      </c>
+      <c r="IG48" s="12">
+        <v>2</v>
+      </c>
+      <c r="IH48" s="9">
+        <v>3</v>
+      </c>
+      <c r="II48" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ48" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK48" s="23">
+        <v>3</v>
+      </c>
+      <c r="IL48" s="23">
+        <v>3</v>
+      </c>
+      <c r="IM48" s="23">
+        <v>3</v>
+      </c>
+      <c r="IN48" s="23">
+        <v>3</v>
+      </c>
+      <c r="IO48" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="26">
         <v>29</v>
       </c>
@@ -9170,56 +10386,120 @@
       <c r="FA49" s="23"/>
       <c r="FB49" s="23"/>
       <c r="FC49" s="12"/>
-      <c r="FF49" s="9">
-        <v>1</v>
-      </c>
-      <c r="FG49" s="23">
-        <v>2</v>
-      </c>
-      <c r="FH49" s="23">
-        <v>2</v>
-      </c>
-      <c r="FI49" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ49" s="23">
-        <v>2</v>
-      </c>
-      <c r="FK49" s="23">
-        <v>2</v>
-      </c>
-      <c r="FL49" s="23">
-        <v>2</v>
-      </c>
-      <c r="FM49" s="12">
-        <v>2</v>
-      </c>
-      <c r="FN49" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO49" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP49" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ49" s="23">
-        <v>3</v>
-      </c>
-      <c r="FR49" s="23">
-        <v>3</v>
-      </c>
-      <c r="FS49" s="23">
-        <v>3</v>
-      </c>
-      <c r="FT49" s="23">
-        <v>3</v>
-      </c>
-      <c r="FU49" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF49" s="9"/>
+      <c r="FG49" s="23"/>
+      <c r="FH49" s="23"/>
+      <c r="FI49" s="23"/>
+      <c r="FJ49" s="23"/>
+      <c r="FK49" s="23"/>
+      <c r="FL49" s="23"/>
+      <c r="FM49" s="23"/>
+      <c r="FN49" s="23"/>
+      <c r="FO49" s="23"/>
+      <c r="FP49" s="23"/>
+      <c r="FQ49" s="23"/>
+      <c r="FR49" s="23"/>
+      <c r="FS49" s="23"/>
+      <c r="FT49" s="23"/>
+      <c r="FU49" s="12"/>
+      <c r="FX49" s="9"/>
+      <c r="FY49" s="23"/>
+      <c r="FZ49" s="23"/>
+      <c r="GA49" s="23"/>
+      <c r="GB49" s="23"/>
+      <c r="GC49" s="23"/>
+      <c r="GD49" s="23"/>
+      <c r="GE49" s="23"/>
+      <c r="GF49" s="23"/>
+      <c r="GG49" s="23"/>
+      <c r="GH49" s="23"/>
+      <c r="GI49" s="23"/>
+      <c r="GJ49" s="23"/>
+      <c r="GK49" s="23"/>
+      <c r="GL49" s="23"/>
+      <c r="GM49" s="12"/>
+      <c r="GP49" s="9"/>
+      <c r="GQ49" s="23"/>
+      <c r="GR49" s="23"/>
+      <c r="GS49" s="23"/>
+      <c r="GT49" s="23"/>
+      <c r="GU49" s="23"/>
+      <c r="GV49" s="23"/>
+      <c r="GW49" s="23"/>
+      <c r="GX49" s="23"/>
+      <c r="GY49" s="23"/>
+      <c r="GZ49" s="23"/>
+      <c r="HA49" s="23"/>
+      <c r="HB49" s="23"/>
+      <c r="HC49" s="23"/>
+      <c r="HD49" s="23"/>
+      <c r="HE49" s="12"/>
+      <c r="HH49" s="9"/>
+      <c r="HI49" s="23"/>
+      <c r="HJ49" s="23"/>
+      <c r="HK49" s="23"/>
+      <c r="HL49" s="23"/>
+      <c r="HM49" s="23"/>
+      <c r="HN49" s="23"/>
+      <c r="HO49" s="23"/>
+      <c r="HP49" s="23"/>
+      <c r="HQ49" s="23"/>
+      <c r="HR49" s="23"/>
+      <c r="HS49" s="23"/>
+      <c r="HT49" s="23"/>
+      <c r="HU49" s="23"/>
+      <c r="HV49" s="23"/>
+      <c r="HW49" s="12"/>
+      <c r="HZ49" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA49" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB49" s="23">
+        <v>2</v>
+      </c>
+      <c r="IC49" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID49" s="23">
+        <v>2</v>
+      </c>
+      <c r="IE49" s="23">
+        <v>2</v>
+      </c>
+      <c r="IF49" s="23">
+        <v>2</v>
+      </c>
+      <c r="IG49" s="12">
+        <v>2</v>
+      </c>
+      <c r="IH49" s="9">
+        <v>3</v>
+      </c>
+      <c r="II49" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ49" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK49" s="23">
+        <v>3</v>
+      </c>
+      <c r="IL49" s="23">
+        <v>3</v>
+      </c>
+      <c r="IM49" s="23">
+        <v>3</v>
+      </c>
+      <c r="IN49" s="23">
+        <v>3</v>
+      </c>
+      <c r="IO49" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="26">
         <v>29</v>
       </c>
@@ -9460,56 +10740,120 @@
       <c r="FA50" s="23"/>
       <c r="FB50" s="23"/>
       <c r="FC50" s="12"/>
-      <c r="FF50" s="9">
-        <v>1</v>
-      </c>
-      <c r="FG50" s="23">
-        <v>2</v>
-      </c>
-      <c r="FH50" s="23">
-        <v>2</v>
-      </c>
-      <c r="FI50" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FK50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FL50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FM50" s="12">
-        <v>3</v>
-      </c>
-      <c r="FN50" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FR50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FS50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FT50" s="23">
-        <v>3</v>
-      </c>
-      <c r="FU50" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="FF50" s="9"/>
+      <c r="FG50" s="23"/>
+      <c r="FH50" s="23"/>
+      <c r="FI50" s="23"/>
+      <c r="FJ50" s="23"/>
+      <c r="FK50" s="23"/>
+      <c r="FL50" s="23"/>
+      <c r="FM50" s="23"/>
+      <c r="FN50" s="23"/>
+      <c r="FO50" s="23"/>
+      <c r="FP50" s="23"/>
+      <c r="FQ50" s="23"/>
+      <c r="FR50" s="23"/>
+      <c r="FS50" s="23"/>
+      <c r="FT50" s="23"/>
+      <c r="FU50" s="12"/>
+      <c r="FX50" s="9"/>
+      <c r="FY50" s="23"/>
+      <c r="FZ50" s="23"/>
+      <c r="GA50" s="23"/>
+      <c r="GB50" s="23"/>
+      <c r="GC50" s="23"/>
+      <c r="GD50" s="23"/>
+      <c r="GE50" s="23"/>
+      <c r="GF50" s="23"/>
+      <c r="GG50" s="23"/>
+      <c r="GH50" s="23"/>
+      <c r="GI50" s="23"/>
+      <c r="GJ50" s="23"/>
+      <c r="GK50" s="23"/>
+      <c r="GL50" s="23"/>
+      <c r="GM50" s="12"/>
+      <c r="GP50" s="9"/>
+      <c r="GQ50" s="23"/>
+      <c r="GR50" s="23"/>
+      <c r="GS50" s="23"/>
+      <c r="GT50" s="23"/>
+      <c r="GU50" s="23"/>
+      <c r="GV50" s="23"/>
+      <c r="GW50" s="23"/>
+      <c r="GX50" s="23"/>
+      <c r="GY50" s="23"/>
+      <c r="GZ50" s="23"/>
+      <c r="HA50" s="23"/>
+      <c r="HB50" s="23"/>
+      <c r="HC50" s="23"/>
+      <c r="HD50" s="23"/>
+      <c r="HE50" s="12"/>
+      <c r="HH50" s="9"/>
+      <c r="HI50" s="23"/>
+      <c r="HJ50" s="23"/>
+      <c r="HK50" s="23"/>
+      <c r="HL50" s="23"/>
+      <c r="HM50" s="23"/>
+      <c r="HN50" s="23"/>
+      <c r="HO50" s="23"/>
+      <c r="HP50" s="23"/>
+      <c r="HQ50" s="23"/>
+      <c r="HR50" s="23"/>
+      <c r="HS50" s="23"/>
+      <c r="HT50" s="23"/>
+      <c r="HU50" s="23"/>
+      <c r="HV50" s="23"/>
+      <c r="HW50" s="12"/>
+      <c r="HZ50" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA50" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB50" s="23">
+        <v>2</v>
+      </c>
+      <c r="IC50" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IE50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IF50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IG50" s="12">
+        <v>3</v>
+      </c>
+      <c r="IH50" s="9">
+        <v>3</v>
+      </c>
+      <c r="II50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IL50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IM50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IN50" s="23">
+        <v>3</v>
+      </c>
+      <c r="IO50" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="26">
         <v>29</v>
       </c>
@@ -9750,56 +11094,120 @@
       <c r="FA51" s="23"/>
       <c r="FB51" s="23"/>
       <c r="FC51" s="12"/>
-      <c r="FF51" s="9">
-        <v>1</v>
-      </c>
-      <c r="FG51" s="23">
-        <v>2</v>
-      </c>
-      <c r="FH51" s="23">
-        <v>2</v>
-      </c>
-      <c r="FI51" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ51" s="23">
-        <v>3</v>
-      </c>
-      <c r="FK51" s="23">
+      <c r="FF51" s="9"/>
+      <c r="FG51" s="23"/>
+      <c r="FH51" s="23"/>
+      <c r="FI51" s="23"/>
+      <c r="FJ51" s="23"/>
+      <c r="FK51" s="23"/>
+      <c r="FL51" s="23"/>
+      <c r="FM51" s="23"/>
+      <c r="FN51" s="23"/>
+      <c r="FO51" s="23"/>
+      <c r="FP51" s="23"/>
+      <c r="FQ51" s="23"/>
+      <c r="FR51" s="23"/>
+      <c r="FS51" s="23"/>
+      <c r="FT51" s="23"/>
+      <c r="FU51" s="12"/>
+      <c r="FX51" s="9"/>
+      <c r="FY51" s="23"/>
+      <c r="FZ51" s="23"/>
+      <c r="GA51" s="23"/>
+      <c r="GB51" s="23"/>
+      <c r="GC51" s="23"/>
+      <c r="GD51" s="23"/>
+      <c r="GE51" s="23"/>
+      <c r="GF51" s="23"/>
+      <c r="GG51" s="23"/>
+      <c r="GH51" s="23"/>
+      <c r="GI51" s="23"/>
+      <c r="GJ51" s="23"/>
+      <c r="GK51" s="23"/>
+      <c r="GL51" s="23"/>
+      <c r="GM51" s="12"/>
+      <c r="GP51" s="9"/>
+      <c r="GQ51" s="23"/>
+      <c r="GR51" s="23"/>
+      <c r="GS51" s="23"/>
+      <c r="GT51" s="23"/>
+      <c r="GU51" s="23"/>
+      <c r="GV51" s="23"/>
+      <c r="GW51" s="23"/>
+      <c r="GX51" s="23"/>
+      <c r="GY51" s="23"/>
+      <c r="GZ51" s="23"/>
+      <c r="HA51" s="23"/>
+      <c r="HB51" s="23"/>
+      <c r="HC51" s="23"/>
+      <c r="HD51" s="23"/>
+      <c r="HE51" s="12"/>
+      <c r="HH51" s="9"/>
+      <c r="HI51" s="23"/>
+      <c r="HJ51" s="23"/>
+      <c r="HK51" s="23"/>
+      <c r="HL51" s="23"/>
+      <c r="HM51" s="23"/>
+      <c r="HN51" s="23"/>
+      <c r="HO51" s="23"/>
+      <c r="HP51" s="23"/>
+      <c r="HQ51" s="23"/>
+      <c r="HR51" s="23"/>
+      <c r="HS51" s="23"/>
+      <c r="HT51" s="23"/>
+      <c r="HU51" s="23"/>
+      <c r="HV51" s="23"/>
+      <c r="HW51" s="12"/>
+      <c r="HZ51" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA51" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB51" s="23">
+        <v>2</v>
+      </c>
+      <c r="IC51" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID51" s="23">
+        <v>3</v>
+      </c>
+      <c r="IE51" s="23">
         <v>9</v>
       </c>
-      <c r="FL51" s="23">
+      <c r="IF51" s="23">
         <v>9</v>
       </c>
-      <c r="FM51" s="12">
+      <c r="IG51" s="12">
         <v>9</v>
       </c>
-      <c r="FN51" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO51" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP51" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ51" s="23">
-        <v>3</v>
-      </c>
-      <c r="FR51" s="23">
-        <v>3</v>
-      </c>
-      <c r="FS51" s="23">
-        <v>3</v>
-      </c>
-      <c r="FT51" s="23">
-        <v>3</v>
-      </c>
-      <c r="FU51" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="IH51" s="9">
+        <v>3</v>
+      </c>
+      <c r="II51" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ51" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK51" s="23">
+        <v>3</v>
+      </c>
+      <c r="IL51" s="23">
+        <v>3</v>
+      </c>
+      <c r="IM51" s="23">
+        <v>3</v>
+      </c>
+      <c r="IN51" s="23">
+        <v>3</v>
+      </c>
+      <c r="IO51" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="26">
         <v>29</v>
       </c>
@@ -10040,56 +11448,120 @@
       <c r="FA52" s="23"/>
       <c r="FB52" s="23"/>
       <c r="FC52" s="12"/>
-      <c r="FF52" s="9">
-        <v>1</v>
-      </c>
-      <c r="FG52" s="23">
-        <v>2</v>
-      </c>
-      <c r="FH52" s="23">
-        <v>2</v>
-      </c>
-      <c r="FI52" s="23">
-        <v>2</v>
-      </c>
-      <c r="FJ52" s="23">
-        <v>3</v>
-      </c>
-      <c r="FK52" s="23">
+      <c r="FF52" s="9"/>
+      <c r="FG52" s="23"/>
+      <c r="FH52" s="23"/>
+      <c r="FI52" s="23"/>
+      <c r="FJ52" s="23"/>
+      <c r="FK52" s="23"/>
+      <c r="FL52" s="23"/>
+      <c r="FM52" s="23"/>
+      <c r="FN52" s="23"/>
+      <c r="FO52" s="23"/>
+      <c r="FP52" s="23"/>
+      <c r="FQ52" s="23"/>
+      <c r="FR52" s="23"/>
+      <c r="FS52" s="23"/>
+      <c r="FT52" s="23"/>
+      <c r="FU52" s="12"/>
+      <c r="FX52" s="9"/>
+      <c r="FY52" s="23"/>
+      <c r="FZ52" s="23"/>
+      <c r="GA52" s="23"/>
+      <c r="GB52" s="23"/>
+      <c r="GC52" s="23"/>
+      <c r="GD52" s="23"/>
+      <c r="GE52" s="23"/>
+      <c r="GF52" s="23"/>
+      <c r="GG52" s="23"/>
+      <c r="GH52" s="23"/>
+      <c r="GI52" s="23"/>
+      <c r="GJ52" s="23"/>
+      <c r="GK52" s="23"/>
+      <c r="GL52" s="23"/>
+      <c r="GM52" s="12"/>
+      <c r="GP52" s="9"/>
+      <c r="GQ52" s="23"/>
+      <c r="GR52" s="23"/>
+      <c r="GS52" s="23"/>
+      <c r="GT52" s="23"/>
+      <c r="GU52" s="23"/>
+      <c r="GV52" s="23"/>
+      <c r="GW52" s="23"/>
+      <c r="GX52" s="23"/>
+      <c r="GY52" s="23"/>
+      <c r="GZ52" s="23"/>
+      <c r="HA52" s="23"/>
+      <c r="HB52" s="23"/>
+      <c r="HC52" s="23"/>
+      <c r="HD52" s="23"/>
+      <c r="HE52" s="12"/>
+      <c r="HH52" s="9"/>
+      <c r="HI52" s="23"/>
+      <c r="HJ52" s="23"/>
+      <c r="HK52" s="23"/>
+      <c r="HL52" s="23"/>
+      <c r="HM52" s="23"/>
+      <c r="HN52" s="23"/>
+      <c r="HO52" s="23"/>
+      <c r="HP52" s="23"/>
+      <c r="HQ52" s="23"/>
+      <c r="HR52" s="23"/>
+      <c r="HS52" s="23"/>
+      <c r="HT52" s="23"/>
+      <c r="HU52" s="23"/>
+      <c r="HV52" s="23"/>
+      <c r="HW52" s="12"/>
+      <c r="HZ52" s="9">
+        <v>1</v>
+      </c>
+      <c r="IA52" s="23">
+        <v>2</v>
+      </c>
+      <c r="IB52" s="23">
+        <v>2</v>
+      </c>
+      <c r="IC52" s="23">
+        <v>2</v>
+      </c>
+      <c r="ID52" s="23">
+        <v>3</v>
+      </c>
+      <c r="IE52" s="23">
         <v>9</v>
       </c>
-      <c r="FL52" s="23">
+      <c r="IF52" s="23">
         <v>12</v>
       </c>
-      <c r="FM52" s="12">
+      <c r="IG52" s="12">
         <v>12</v>
       </c>
-      <c r="FN52" s="9">
-        <v>3</v>
-      </c>
-      <c r="FO52" s="23">
-        <v>3</v>
-      </c>
-      <c r="FP52" s="23">
-        <v>3</v>
-      </c>
-      <c r="FQ52" s="23">
-        <v>3</v>
-      </c>
-      <c r="FR52" s="23">
-        <v>3</v>
-      </c>
-      <c r="FS52" s="23">
-        <v>3</v>
-      </c>
-      <c r="FT52" s="23">
-        <v>3</v>
-      </c>
-      <c r="FU52" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="IH52" s="9">
+        <v>3</v>
+      </c>
+      <c r="II52" s="23">
+        <v>3</v>
+      </c>
+      <c r="IJ52" s="23">
+        <v>3</v>
+      </c>
+      <c r="IK52" s="23">
+        <v>3</v>
+      </c>
+      <c r="IL52" s="23">
+        <v>3</v>
+      </c>
+      <c r="IM52" s="23">
+        <v>3</v>
+      </c>
+      <c r="IN52" s="23">
+        <v>3</v>
+      </c>
+      <c r="IO52" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="24">
         <v>35</v>
       </c>
@@ -10330,56 +11802,120 @@
       <c r="FA53" s="14"/>
       <c r="FB53" s="14"/>
       <c r="FC53" s="15"/>
-      <c r="FF53" s="16">
-        <v>1</v>
-      </c>
-      <c r="FG53" s="14">
-        <v>2</v>
-      </c>
-      <c r="FH53" s="14">
-        <v>2</v>
-      </c>
-      <c r="FI53" s="14">
-        <v>2</v>
-      </c>
-      <c r="FJ53" s="14">
-        <v>3</v>
-      </c>
-      <c r="FK53" s="14">
+      <c r="FF53" s="16"/>
+      <c r="FG53" s="14"/>
+      <c r="FH53" s="14"/>
+      <c r="FI53" s="14"/>
+      <c r="FJ53" s="14"/>
+      <c r="FK53" s="14"/>
+      <c r="FL53" s="14"/>
+      <c r="FM53" s="14"/>
+      <c r="FN53" s="14"/>
+      <c r="FO53" s="14"/>
+      <c r="FP53" s="14"/>
+      <c r="FQ53" s="14"/>
+      <c r="FR53" s="14"/>
+      <c r="FS53" s="14"/>
+      <c r="FT53" s="14"/>
+      <c r="FU53" s="15"/>
+      <c r="FX53" s="16"/>
+      <c r="FY53" s="14"/>
+      <c r="FZ53" s="14"/>
+      <c r="GA53" s="14"/>
+      <c r="GB53" s="14"/>
+      <c r="GC53" s="14"/>
+      <c r="GD53" s="14"/>
+      <c r="GE53" s="14"/>
+      <c r="GF53" s="14"/>
+      <c r="GG53" s="14"/>
+      <c r="GH53" s="14"/>
+      <c r="GI53" s="14"/>
+      <c r="GJ53" s="14"/>
+      <c r="GK53" s="14"/>
+      <c r="GL53" s="14"/>
+      <c r="GM53" s="15"/>
+      <c r="GP53" s="16"/>
+      <c r="GQ53" s="14"/>
+      <c r="GR53" s="14"/>
+      <c r="GS53" s="14"/>
+      <c r="GT53" s="14"/>
+      <c r="GU53" s="14"/>
+      <c r="GV53" s="14"/>
+      <c r="GW53" s="14"/>
+      <c r="GX53" s="14"/>
+      <c r="GY53" s="14"/>
+      <c r="GZ53" s="14"/>
+      <c r="HA53" s="14"/>
+      <c r="HB53" s="14"/>
+      <c r="HC53" s="14"/>
+      <c r="HD53" s="14"/>
+      <c r="HE53" s="15"/>
+      <c r="HH53" s="16"/>
+      <c r="HI53" s="14"/>
+      <c r="HJ53" s="14"/>
+      <c r="HK53" s="14"/>
+      <c r="HL53" s="14"/>
+      <c r="HM53" s="14"/>
+      <c r="HN53" s="14"/>
+      <c r="HO53" s="14"/>
+      <c r="HP53" s="14"/>
+      <c r="HQ53" s="14"/>
+      <c r="HR53" s="14"/>
+      <c r="HS53" s="14"/>
+      <c r="HT53" s="14"/>
+      <c r="HU53" s="14"/>
+      <c r="HV53" s="14"/>
+      <c r="HW53" s="15"/>
+      <c r="HZ53" s="16">
+        <v>1</v>
+      </c>
+      <c r="IA53" s="14">
+        <v>2</v>
+      </c>
+      <c r="IB53" s="14">
+        <v>2</v>
+      </c>
+      <c r="IC53" s="14">
+        <v>2</v>
+      </c>
+      <c r="ID53" s="14">
+        <v>3</v>
+      </c>
+      <c r="IE53" s="14">
         <v>9</v>
       </c>
-      <c r="FL53" s="14">
+      <c r="IF53" s="14">
         <v>12</v>
       </c>
-      <c r="FM53" s="15">
-        <v>1</v>
-      </c>
-      <c r="FN53" s="16">
-        <v>3</v>
-      </c>
-      <c r="FO53" s="14">
-        <v>3</v>
-      </c>
-      <c r="FP53" s="14">
-        <v>3</v>
-      </c>
-      <c r="FQ53" s="14">
-        <v>3</v>
-      </c>
-      <c r="FR53" s="14">
-        <v>3</v>
-      </c>
-      <c r="FS53" s="14">
-        <v>3</v>
-      </c>
-      <c r="FT53" s="14">
-        <v>3</v>
-      </c>
-      <c r="FU53" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="IG53" s="15">
+        <v>1</v>
+      </c>
+      <c r="IH53" s="16">
+        <v>3</v>
+      </c>
+      <c r="II53" s="14">
+        <v>3</v>
+      </c>
+      <c r="IJ53" s="14">
+        <v>3</v>
+      </c>
+      <c r="IK53" s="14">
+        <v>3</v>
+      </c>
+      <c r="IL53" s="14">
+        <v>3</v>
+      </c>
+      <c r="IM53" s="14">
+        <v>3</v>
+      </c>
+      <c r="IN53" s="14">
+        <v>3</v>
+      </c>
+      <c r="IO53" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="26">
         <v>35</v>
       </c>
@@ -10525,7 +12061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="26">
         <v>35</v>
       </c>
@@ -10671,7 +12207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C56" s="17">
         <v>35</v>
       </c>
@@ -11105,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="9">
         <v>18</v>
       </c>
@@ -11539,7 +13075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="9">
         <v>18</v>
       </c>
@@ -11973,7 +13509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C59" s="9">
         <v>18</v>
       </c>
@@ -12407,7 +13943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="9">
         <v>18</v>
       </c>
@@ -12841,7 +14377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="9">
         <v>35</v>
       </c>
@@ -13275,7 +14811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="3:177" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:249" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
         <v>35</v>
       </c>
@@ -13709,7 +15245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C63" s="9">
         <v>35</v>
       </c>
@@ -14143,7 +15679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="3:177" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:249" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C64" s="9">
         <v>35</v>
       </c>
@@ -18351,8 +19887,9 @@
     <mergeCell ref="AD6:AG9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
